--- a/index/data/pw_P_photometric.xlsx
+++ b/index/data/pw_P_photometric.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\harmv\Documents\studie\scriptie\Master\Master_Thesis\index\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C7446CC-D9B2-4A96-9D9D-BA5115C45882}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BD42BCF-164D-4237-96FB-AD20694F7652}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="117">
   <si>
     <t>Sample</t>
   </si>
@@ -48,333 +48,12 @@
     <t>A</t>
   </si>
   <si>
-    <t>A bw</t>
-  </si>
-  <si>
-    <t>BL-A1.1-0</t>
-  </si>
-  <si>
-    <t>BL-A1.1-1</t>
-  </si>
-  <si>
-    <t>BL-A1.1-2</t>
-  </si>
-  <si>
-    <t>BL-A1.1-3</t>
-  </si>
-  <si>
-    <t>BL-A1.1-4</t>
-  </si>
-  <si>
-    <t>BL-A1.1-5</t>
-  </si>
-  <si>
-    <t>BL-A1.1-6</t>
-  </si>
-  <si>
-    <t>BL-A1.1-7</t>
-  </si>
-  <si>
-    <t>BL-A1.1-8</t>
-  </si>
-  <si>
-    <t>BL-A1.1-9</t>
-  </si>
-  <si>
-    <t>BL-A1.1-10</t>
-  </si>
-  <si>
-    <t>BL-A1.1-11</t>
-  </si>
-  <si>
-    <t>BL-A1.1-12</t>
-  </si>
-  <si>
-    <t>BL-A1.1-13</t>
-  </si>
-  <si>
-    <t>BL-A1.1-14</t>
-  </si>
-  <si>
-    <t>BL-A1.1-15</t>
-  </si>
-  <si>
-    <t>BL-A1.1-16</t>
-  </si>
-  <si>
-    <t>BL-A1.1-17</t>
-  </si>
-  <si>
-    <t>BL-A1.1-18</t>
-  </si>
-  <si>
-    <t>BL-A1.1-19</t>
-  </si>
-  <si>
-    <t>BL-A1.1-20</t>
-  </si>
-  <si>
-    <t>BL-A1.1-21</t>
-  </si>
-  <si>
-    <t>BL-A1.1-22</t>
-  </si>
-  <si>
-    <t>BL-A1.1-23</t>
-  </si>
-  <si>
     <t>B</t>
   </si>
   <si>
-    <t>B bw</t>
-  </si>
-  <si>
-    <t>BL-B1.1-0</t>
-  </si>
-  <si>
-    <t>BL-B1.1-1</t>
-  </si>
-  <si>
-    <t>BL-B1.1-2</t>
-  </si>
-  <si>
-    <t>BL-B1.1-3</t>
-  </si>
-  <si>
-    <t>BL-B1.1-4</t>
-  </si>
-  <si>
-    <t>BL-B1.1-5</t>
-  </si>
-  <si>
-    <t>BL-B1.1-6</t>
-  </si>
-  <si>
-    <t>BL-B1.1-7</t>
-  </si>
-  <si>
-    <t>BL-B1.1-8</t>
-  </si>
-  <si>
-    <t>BL-B1.1-9</t>
-  </si>
-  <si>
-    <t>BL-B1.1-10</t>
-  </si>
-  <si>
-    <t>BL-B1.1-11</t>
-  </si>
-  <si>
-    <t>BL-B1.1-12</t>
-  </si>
-  <si>
-    <t>BL-B1.1-13</t>
-  </si>
-  <si>
-    <t>BL-B1.1-14</t>
-  </si>
-  <si>
-    <t>BL-B1.1-15</t>
-  </si>
-  <si>
-    <t>BL-B1.1-16</t>
-  </si>
-  <si>
-    <t>BL-B1.1-17</t>
-  </si>
-  <si>
-    <t>BL-B1.1-18</t>
-  </si>
-  <si>
-    <t>BL-B1.1-19</t>
-  </si>
-  <si>
-    <t>BL-B1.1-20</t>
-  </si>
-  <si>
-    <t>BL-B1.1-21</t>
-  </si>
-  <si>
-    <t>BL-B1.1-22</t>
-  </si>
-  <si>
-    <t>BL-B1.1-23</t>
-  </si>
-  <si>
-    <t>BL-B1.1-24</t>
-  </si>
-  <si>
-    <t>C bw</t>
-  </si>
-  <si>
-    <t>BL-C1.1-0</t>
-  </si>
-  <si>
-    <t>BL-C1.1-1</t>
-  </si>
-  <si>
-    <t>BL-C1.1-2</t>
-  </si>
-  <si>
-    <t>BL-C1.1-3</t>
-  </si>
-  <si>
-    <t>BL-C1.1-4</t>
-  </si>
-  <si>
-    <t>BL-C1.1-5</t>
-  </si>
-  <si>
-    <t>BL-C1.1-6</t>
-  </si>
-  <si>
-    <t>BL-C1.1-7</t>
-  </si>
-  <si>
-    <t>BL-C1.1-8</t>
-  </si>
-  <si>
-    <t>BL-C1.1-9</t>
-  </si>
-  <si>
-    <t>BL-C1.1-10</t>
-  </si>
-  <si>
-    <t>BL-C1.1-11</t>
-  </si>
-  <si>
-    <t>BL-C1.1-12</t>
-  </si>
-  <si>
-    <t>BL-C1.1-13</t>
-  </si>
-  <si>
-    <t>BL-C1.1-14</t>
-  </si>
-  <si>
-    <t>BL-C1.1-15</t>
-  </si>
-  <si>
-    <t>BL-C1.1-16</t>
-  </si>
-  <si>
-    <t>BL-C1.1-17</t>
-  </si>
-  <si>
-    <t>BL-C1.1-18</t>
-  </si>
-  <si>
-    <t>BL-C1.1-19</t>
-  </si>
-  <si>
-    <t>BL-C1.1-20</t>
-  </si>
-  <si>
-    <t>BL-C1.1-21</t>
-  </si>
-  <si>
-    <t>BL-C1.1-22</t>
-  </si>
-  <si>
-    <t>BL-C1.1-23</t>
-  </si>
-  <si>
-    <t>BL-C1.1-24</t>
-  </si>
-  <si>
-    <t>BL-C1.1-25</t>
-  </si>
-  <si>
-    <t>BL-C1.1-26</t>
-  </si>
-  <si>
     <t>D</t>
   </si>
   <si>
-    <t>D bw</t>
-  </si>
-  <si>
-    <t>BL-D1.1-0</t>
-  </si>
-  <si>
-    <t>BL-D1.1-1</t>
-  </si>
-  <si>
-    <t>BL-D1.1-2</t>
-  </si>
-  <si>
-    <t>BL-D1.1-3</t>
-  </si>
-  <si>
-    <t>BL-D1.1-4</t>
-  </si>
-  <si>
-    <t>BL-D1.1-5</t>
-  </si>
-  <si>
-    <t>BL-D1.1-6</t>
-  </si>
-  <si>
-    <t>BL-D1.1-7</t>
-  </si>
-  <si>
-    <t>BL-D1.1-8</t>
-  </si>
-  <si>
-    <t>BL-D1.1-9</t>
-  </si>
-  <si>
-    <t>BL-D1.1-10</t>
-  </si>
-  <si>
-    <t>BL-D1.1-11</t>
-  </si>
-  <si>
-    <t>BL-D1.1-12</t>
-  </si>
-  <si>
-    <t>BL-D1.1-13</t>
-  </si>
-  <si>
-    <t>BL-D1.1-14</t>
-  </si>
-  <si>
-    <t>BL-D1.1-15</t>
-  </si>
-  <si>
-    <t>BL-D1.1-16</t>
-  </si>
-  <si>
-    <t>BL-D1.1-17</t>
-  </si>
-  <si>
-    <t>BL-D1.1-18</t>
-  </si>
-  <si>
-    <t>BL-D1.1-19</t>
-  </si>
-  <si>
-    <t>BL-D1.1-20</t>
-  </si>
-  <si>
-    <t>BL-D1.1-21</t>
-  </si>
-  <si>
-    <t>BL-D1.1-22</t>
-  </si>
-  <si>
-    <t>BL-D1.1-23</t>
-  </si>
-  <si>
-    <t>BL-D1.1-24</t>
-  </si>
-  <si>
-    <t>BL-D1.1-25</t>
-  </si>
-  <si>
-    <t>BL-D1.1-26</t>
-  </si>
-  <si>
     <t>P</t>
   </si>
   <si>
@@ -382,6 +61,330 @@
   </si>
   <si>
     <t>Location</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>BL-A-sw1</t>
+  </si>
+  <si>
+    <t>BL-D-sw1</t>
+  </si>
+  <si>
+    <t>BL-C-sw1</t>
+  </si>
+  <si>
+    <t>BL-B-sw1</t>
+  </si>
+  <si>
+    <t>BL-A1.1-pw-0</t>
+  </si>
+  <si>
+    <t>BL-A1.1-pw-1</t>
+  </si>
+  <si>
+    <t>BL-A1.1-pw-2</t>
+  </si>
+  <si>
+    <t>BL-A1.1-pw-3</t>
+  </si>
+  <si>
+    <t>BL-A1.1-pw-4</t>
+  </si>
+  <si>
+    <t>BL-A1.1-pw-5</t>
+  </si>
+  <si>
+    <t>BL-A1.1-pw-6</t>
+  </si>
+  <si>
+    <t>BL-A1.1-pw-7</t>
+  </si>
+  <si>
+    <t>BL-A1.1-pw-8</t>
+  </si>
+  <si>
+    <t>BL-A1.1-pw-9</t>
+  </si>
+  <si>
+    <t>BL-A1.1-pw-10</t>
+  </si>
+  <si>
+    <t>BL-A1.1-pw-11</t>
+  </si>
+  <si>
+    <t>BL-A1.1-pw-12</t>
+  </si>
+  <si>
+    <t>BL-A1.1-pw-13</t>
+  </si>
+  <si>
+    <t>BL-A1.1-pw-14</t>
+  </si>
+  <si>
+    <t>BL-A1.1-pw-15</t>
+  </si>
+  <si>
+    <t>BL-A1.1-pw-16</t>
+  </si>
+  <si>
+    <t>BL-A1.1-pw-17</t>
+  </si>
+  <si>
+    <t>BL-A1.1-pw-18</t>
+  </si>
+  <si>
+    <t>BL-A1.1-pw-19</t>
+  </si>
+  <si>
+    <t>BL-A1.1-pw-20</t>
+  </si>
+  <si>
+    <t>BL-A1.1-pw-21</t>
+  </si>
+  <si>
+    <t>BL-A1.1-pw-22</t>
+  </si>
+  <si>
+    <t>BL-A1.1-pw-23</t>
+  </si>
+  <si>
+    <t>BL-B1.1-pw-0</t>
+  </si>
+  <si>
+    <t>BL-B1.1-pw-1</t>
+  </si>
+  <si>
+    <t>BL-B1.1-pw-2</t>
+  </si>
+  <si>
+    <t>BL-B1.1-pw-3</t>
+  </si>
+  <si>
+    <t>BL-B1.1-pw-4</t>
+  </si>
+  <si>
+    <t>BL-B1.1-pw-5</t>
+  </si>
+  <si>
+    <t>BL-B1.1-pw-6</t>
+  </si>
+  <si>
+    <t>BL-B1.1-pw-7</t>
+  </si>
+  <si>
+    <t>BL-B1.1-pw-8</t>
+  </si>
+  <si>
+    <t>BL-B1.1-pw-9</t>
+  </si>
+  <si>
+    <t>BL-B1.1-pw-10</t>
+  </si>
+  <si>
+    <t>BL-B1.1-pw-11</t>
+  </si>
+  <si>
+    <t>BL-B1.1-pw-12</t>
+  </si>
+  <si>
+    <t>BL-B1.1-pw-13</t>
+  </si>
+  <si>
+    <t>BL-B1.1-pw-14</t>
+  </si>
+  <si>
+    <t>BL-B1.1-pw-15</t>
+  </si>
+  <si>
+    <t>BL-B1.1-pw-16</t>
+  </si>
+  <si>
+    <t>BL-B1.1-pw-17</t>
+  </si>
+  <si>
+    <t>BL-B1.1-pw-18</t>
+  </si>
+  <si>
+    <t>BL-B1.1-pw-19</t>
+  </si>
+  <si>
+    <t>BL-B1.1-pw-20</t>
+  </si>
+  <si>
+    <t>BL-B1.1-pw-21</t>
+  </si>
+  <si>
+    <t>BL-B1.1-pw-22</t>
+  </si>
+  <si>
+    <t>BL-B1.1-pw-23</t>
+  </si>
+  <si>
+    <t>BL-B1.1-pw-24</t>
+  </si>
+  <si>
+    <t>BL-C1.1-pw-0</t>
+  </si>
+  <si>
+    <t>BL-C1.1-pw-1</t>
+  </si>
+  <si>
+    <t>BL-C1.1-pw-2</t>
+  </si>
+  <si>
+    <t>BL-C1.1-pw-3</t>
+  </si>
+  <si>
+    <t>BL-C1.1-pw-4</t>
+  </si>
+  <si>
+    <t>BL-C1.1-pw-5</t>
+  </si>
+  <si>
+    <t>BL-C1.1-pw-6</t>
+  </si>
+  <si>
+    <t>BL-C1.1-pw-7</t>
+  </si>
+  <si>
+    <t>BL-C1.1-pw-8</t>
+  </si>
+  <si>
+    <t>BL-C1.1-pw-9</t>
+  </si>
+  <si>
+    <t>BL-C1.1-pw-10</t>
+  </si>
+  <si>
+    <t>BL-C1.1-pw-11</t>
+  </si>
+  <si>
+    <t>BL-C1.1-pw-12</t>
+  </si>
+  <si>
+    <t>BL-C1.1-pw-13</t>
+  </si>
+  <si>
+    <t>BL-C1.1-pw-14</t>
+  </si>
+  <si>
+    <t>BL-C1.1-pw-15</t>
+  </si>
+  <si>
+    <t>BL-C1.1-pw-16</t>
+  </si>
+  <si>
+    <t>BL-C1.1-pw-17</t>
+  </si>
+  <si>
+    <t>BL-C1.1-pw-18</t>
+  </si>
+  <si>
+    <t>BL-C1.1-pw-19</t>
+  </si>
+  <si>
+    <t>BL-C1.1-pw-20</t>
+  </si>
+  <si>
+    <t>BL-C1.1-pw-21</t>
+  </si>
+  <si>
+    <t>BL-C1.1-pw-22</t>
+  </si>
+  <si>
+    <t>BL-C1.1-pw-23</t>
+  </si>
+  <si>
+    <t>BL-C1.1-pw-24</t>
+  </si>
+  <si>
+    <t>BL-C1.1-pw-25</t>
+  </si>
+  <si>
+    <t>BL-C1.1-pw-26</t>
+  </si>
+  <si>
+    <t>BL-D1.1-pw-0</t>
+  </si>
+  <si>
+    <t>BL-D1.1-pw-1</t>
+  </si>
+  <si>
+    <t>BL-D1.1-pw-2</t>
+  </si>
+  <si>
+    <t>BL-D1.1-pw-3</t>
+  </si>
+  <si>
+    <t>BL-D1.1-pw-4</t>
+  </si>
+  <si>
+    <t>BL-D1.1-pw-5</t>
+  </si>
+  <si>
+    <t>BL-D1.1-pw-6</t>
+  </si>
+  <si>
+    <t>BL-D1.1-pw-7</t>
+  </si>
+  <si>
+    <t>BL-D1.1-pw-8</t>
+  </si>
+  <si>
+    <t>BL-D1.1-pw-9</t>
+  </si>
+  <si>
+    <t>BL-D1.1-pw-10</t>
+  </si>
+  <si>
+    <t>BL-D1.1-pw-11</t>
+  </si>
+  <si>
+    <t>BL-D1.1-pw-12</t>
+  </si>
+  <si>
+    <t>BL-D1.1-pw-13</t>
+  </si>
+  <si>
+    <t>BL-D1.1-pw-14</t>
+  </si>
+  <si>
+    <t>BL-D1.1-pw-15</t>
+  </si>
+  <si>
+    <t>BL-D1.1-pw-16</t>
+  </si>
+  <si>
+    <t>BL-D1.1-pw-17</t>
+  </si>
+  <si>
+    <t>BL-D1.1-pw-18</t>
+  </si>
+  <si>
+    <t>BL-D1.1-pw-19</t>
+  </si>
+  <si>
+    <t>BL-D1.1-pw-20</t>
+  </si>
+  <si>
+    <t>BL-D1.1-pw-21</t>
+  </si>
+  <si>
+    <t>BL-D1.1-pw-22</t>
+  </si>
+  <si>
+    <t>BL-D1.1-pw-23</t>
+  </si>
+  <si>
+    <t>BL-D1.1-pw-24</t>
+  </si>
+  <si>
+    <t>BL-D1.1-pw-25</t>
+  </si>
+  <si>
+    <t>BL-D1.1-pw-26</t>
   </si>
 </sst>
 </file>
@@ -714,15 +717,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F108"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L93" sqref="L93"/>
+    <sheetView tabSelected="1" topLeftCell="A57" workbookViewId="0">
+      <selection activeCell="H118" sqref="G118:H122"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>115</v>
+        <v>8</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -731,10 +734,10 @@
         <v>1</v>
       </c>
       <c r="D1" t="s">
-        <v>113</v>
+        <v>6</v>
       </c>
       <c r="E1" t="s">
-        <v>114</v>
+        <v>7</v>
       </c>
       <c r="F1" t="s">
         <v>2</v>
@@ -745,7 +748,7 @@
         <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="C2">
         <v>0</v>
@@ -765,7 +768,7 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="C3">
         <v>1</v>
@@ -785,7 +788,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="C4">
         <v>2</v>
@@ -805,7 +808,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="C5">
         <v>3</v>
@@ -825,7 +828,7 @@
         <v>3</v>
       </c>
       <c r="B6" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="C6">
         <v>4</v>
@@ -845,7 +848,7 @@
         <v>3</v>
       </c>
       <c r="B7" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="C7">
         <v>5</v>
@@ -865,7 +868,7 @@
         <v>3</v>
       </c>
       <c r="B8" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="C8">
         <v>6</v>
@@ -885,7 +888,7 @@
         <v>3</v>
       </c>
       <c r="B9" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="C9">
         <v>7</v>
@@ -905,7 +908,7 @@
         <v>3</v>
       </c>
       <c r="B10" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="C10">
         <v>8</v>
@@ -925,7 +928,7 @@
         <v>3</v>
       </c>
       <c r="B11" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="C11">
         <v>9</v>
@@ -945,7 +948,7 @@
         <v>3</v>
       </c>
       <c r="B12" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="C12">
         <v>10</v>
@@ -965,7 +968,7 @@
         <v>3</v>
       </c>
       <c r="B13" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="C13">
         <v>12</v>
@@ -985,7 +988,7 @@
         <v>3</v>
       </c>
       <c r="B14" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="C14">
         <v>14</v>
@@ -1005,7 +1008,7 @@
         <v>3</v>
       </c>
       <c r="B15" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="C15">
         <v>16</v>
@@ -1025,7 +1028,7 @@
         <v>3</v>
       </c>
       <c r="B16" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="C16">
         <v>18</v>
@@ -1045,7 +1048,7 @@
         <v>3</v>
       </c>
       <c r="B17" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="C17">
         <v>20</v>
@@ -1065,7 +1068,7 @@
         <v>3</v>
       </c>
       <c r="B18" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="C18">
         <v>22</v>
@@ -1085,7 +1088,7 @@
         <v>3</v>
       </c>
       <c r="B19" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="C19">
         <v>24</v>
@@ -1105,7 +1108,7 @@
         <v>3</v>
       </c>
       <c r="B20" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="C20">
         <v>26</v>
@@ -1125,7 +1128,7 @@
         <v>3</v>
       </c>
       <c r="B21" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="C21">
         <v>28</v>
@@ -1145,7 +1148,7 @@
         <v>3</v>
       </c>
       <c r="B22" t="s">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="C22">
         <v>30</v>
@@ -1165,7 +1168,7 @@
         <v>3</v>
       </c>
       <c r="B23" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="C23">
         <v>32</v>
@@ -1185,7 +1188,7 @@
         <v>3</v>
       </c>
       <c r="B24" t="s">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="C24">
         <v>34</v>
@@ -1205,7 +1208,7 @@
         <v>3</v>
       </c>
       <c r="B25" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="C25">
         <v>36</v>
@@ -1225,7 +1228,7 @@
         <v>3</v>
       </c>
       <c r="B26" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="C26">
         <v>38</v>
@@ -1242,10 +1245,10 @@
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>29</v>
+        <v>4</v>
       </c>
       <c r="B27" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="C27">
         <v>0</v>
@@ -1262,10 +1265,10 @@
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
-        <v>29</v>
+        <v>4</v>
       </c>
       <c r="B28" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="C28">
         <v>1</v>
@@ -1282,10 +1285,10 @@
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>29</v>
+        <v>4</v>
       </c>
       <c r="B29" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="C29">
         <v>2</v>
@@ -1302,10 +1305,10 @@
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
-        <v>29</v>
+        <v>4</v>
       </c>
       <c r="B30" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="C30">
         <v>3</v>
@@ -1322,10 +1325,10 @@
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>29</v>
+        <v>4</v>
       </c>
       <c r="B31" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="C31">
         <v>4</v>
@@ -1342,10 +1345,10 @@
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
-        <v>29</v>
+        <v>4</v>
       </c>
       <c r="B32" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="C32">
         <v>5</v>
@@ -1362,10 +1365,10 @@
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>29</v>
+        <v>4</v>
       </c>
       <c r="B33" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="C33">
         <v>6</v>
@@ -1382,10 +1385,10 @@
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
-        <v>29</v>
+        <v>4</v>
       </c>
       <c r="B34" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="C34">
         <v>7</v>
@@ -1402,10 +1405,10 @@
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>29</v>
+        <v>4</v>
       </c>
       <c r="B35" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="C35">
         <v>8</v>
@@ -1422,10 +1425,10 @@
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
-        <v>29</v>
+        <v>4</v>
       </c>
       <c r="B36" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="C36">
         <v>9</v>
@@ -1442,10 +1445,10 @@
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>29</v>
+        <v>4</v>
       </c>
       <c r="B37" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="C37">
         <v>10</v>
@@ -1462,10 +1465,10 @@
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
-        <v>29</v>
+        <v>4</v>
       </c>
       <c r="B38" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="C38">
         <v>12</v>
@@ -1482,10 +1485,10 @@
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>29</v>
+        <v>4</v>
       </c>
       <c r="B39" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="C39">
         <v>14</v>
@@ -1502,10 +1505,10 @@
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
-        <v>29</v>
+        <v>4</v>
       </c>
       <c r="B40" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="C40">
         <v>16</v>
@@ -1522,10 +1525,10 @@
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>29</v>
+        <v>4</v>
       </c>
       <c r="B41" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="C41">
         <v>18</v>
@@ -1542,10 +1545,10 @@
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
-        <v>29</v>
+        <v>4</v>
       </c>
       <c r="B42" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="C42">
         <v>20</v>
@@ -1562,10 +1565,10 @@
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>29</v>
+        <v>4</v>
       </c>
       <c r="B43" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="C43">
         <v>22</v>
@@ -1582,10 +1585,10 @@
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
-        <v>29</v>
+        <v>4</v>
       </c>
       <c r="B44" t="s">
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="C44">
         <v>24</v>
@@ -1602,10 +1605,10 @@
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>29</v>
+        <v>4</v>
       </c>
       <c r="B45" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="C45">
         <v>26</v>
@@ -1622,10 +1625,10 @@
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
-        <v>29</v>
+        <v>4</v>
       </c>
       <c r="B46" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="C46">
         <v>28</v>
@@ -1642,10 +1645,10 @@
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>29</v>
+        <v>4</v>
       </c>
       <c r="B47" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="C47">
         <v>30</v>
@@ -1662,10 +1665,10 @@
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
-        <v>29</v>
+        <v>4</v>
       </c>
       <c r="B48" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="C48">
         <v>32</v>
@@ -1682,10 +1685,10 @@
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>29</v>
+        <v>4</v>
       </c>
       <c r="B49" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="C49">
         <v>34</v>
@@ -1702,10 +1705,10 @@
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
-        <v>29</v>
+        <v>4</v>
       </c>
       <c r="B50" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="C50">
         <v>36</v>
@@ -1722,10 +1725,10 @@
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>29</v>
+        <v>4</v>
       </c>
       <c r="B51" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="C51">
         <v>38</v>
@@ -1742,10 +1745,10 @@
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
-        <v>29</v>
+        <v>4</v>
       </c>
       <c r="B52" t="s">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="C52">
         <v>40</v>
@@ -1762,10 +1765,10 @@
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>29</v>
+        <v>9</v>
       </c>
       <c r="B53" t="s">
-        <v>56</v>
+        <v>12</v>
       </c>
       <c r="C53">
         <v>0</v>
@@ -1782,10 +1785,10 @@
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
-        <v>29</v>
+        <v>9</v>
       </c>
       <c r="B54" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="C54">
         <v>1</v>
@@ -1802,10 +1805,10 @@
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>29</v>
+        <v>9</v>
       </c>
       <c r="B55" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="C55">
         <v>2</v>
@@ -1822,10 +1825,10 @@
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" s="2" t="s">
-        <v>29</v>
+        <v>9</v>
       </c>
       <c r="B56" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="C56">
         <v>3</v>
@@ -1842,10 +1845,10 @@
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>29</v>
+        <v>9</v>
       </c>
       <c r="B57" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="C57">
         <v>4</v>
@@ -1862,10 +1865,10 @@
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58" s="2" t="s">
-        <v>29</v>
+        <v>9</v>
       </c>
       <c r="B58" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="C58">
         <v>5</v>
@@ -1882,10 +1885,10 @@
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>29</v>
+        <v>9</v>
       </c>
       <c r="B59" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="C59">
         <v>6</v>
@@ -1902,10 +1905,10 @@
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" s="2" t="s">
-        <v>29</v>
+        <v>9</v>
       </c>
       <c r="B60" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="C60">
         <v>7</v>
@@ -1922,10 +1925,10 @@
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>29</v>
+        <v>9</v>
       </c>
       <c r="B61" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="C61">
         <v>8</v>
@@ -1942,10 +1945,10 @@
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62" s="2" t="s">
-        <v>29</v>
+        <v>9</v>
       </c>
       <c r="B62" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="C62">
         <v>9</v>
@@ -1962,10 +1965,10 @@
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>29</v>
+        <v>9</v>
       </c>
       <c r="B63" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="C63">
         <v>10</v>
@@ -1982,10 +1985,10 @@
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64" s="2" t="s">
-        <v>29</v>
+        <v>9</v>
       </c>
       <c r="B64" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="C64">
         <v>12</v>
@@ -2002,10 +2005,10 @@
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>29</v>
+        <v>9</v>
       </c>
       <c r="B65" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="C65">
         <v>14</v>
@@ -2022,10 +2025,10 @@
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A66" s="2" t="s">
-        <v>29</v>
+        <v>9</v>
       </c>
       <c r="B66" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="C66">
         <v>16</v>
@@ -2042,10 +2045,10 @@
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>29</v>
+        <v>9</v>
       </c>
       <c r="B67" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="C67">
         <v>18</v>
@@ -2057,10 +2060,10 @@
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A68" s="2" t="s">
-        <v>29</v>
+        <v>9</v>
       </c>
       <c r="B68" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="C68">
         <v>20</v>
@@ -2077,10 +2080,10 @@
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>29</v>
+        <v>9</v>
       </c>
       <c r="B69" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="C69">
         <v>22</v>
@@ -2097,10 +2100,10 @@
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A70" s="2" t="s">
-        <v>29</v>
+        <v>9</v>
       </c>
       <c r="B70" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="C70">
         <v>24</v>
@@ -2117,10 +2120,10 @@
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>29</v>
+        <v>9</v>
       </c>
       <c r="B71" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="C71">
         <v>26</v>
@@ -2137,10 +2140,10 @@
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A72" s="2" t="s">
-        <v>29</v>
+        <v>9</v>
       </c>
       <c r="B72" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="C72">
         <v>28</v>
@@ -2157,10 +2160,10 @@
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>29</v>
+        <v>9</v>
       </c>
       <c r="B73" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="C73">
         <v>30</v>
@@ -2177,10 +2180,10 @@
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A74" s="2" t="s">
-        <v>29</v>
+        <v>9</v>
       </c>
       <c r="B74" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="C74">
         <v>32</v>
@@ -2197,10 +2200,10 @@
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>29</v>
+        <v>9</v>
       </c>
       <c r="B75" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="C75">
         <v>34</v>
@@ -2217,10 +2220,10 @@
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A76" s="2" t="s">
-        <v>29</v>
+        <v>9</v>
       </c>
       <c r="B76" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="C76">
         <v>36</v>
@@ -2237,10 +2240,10 @@
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>29</v>
+        <v>9</v>
       </c>
       <c r="B77" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="C77">
         <v>38</v>
@@ -2257,10 +2260,10 @@
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A78" s="2" t="s">
-        <v>29</v>
+        <v>9</v>
       </c>
       <c r="B78" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="C78">
         <v>40</v>
@@ -2277,10 +2280,10 @@
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>29</v>
+        <v>9</v>
       </c>
       <c r="B79" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="C79">
         <v>42</v>
@@ -2297,10 +2300,10 @@
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A80" s="2" t="s">
-        <v>29</v>
+        <v>9</v>
       </c>
       <c r="B80" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="C80">
         <v>44</v>
@@ -2317,10 +2320,10 @@
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>84</v>
+        <v>5</v>
       </c>
       <c r="B81" t="s">
-        <v>85</v>
+        <v>11</v>
       </c>
       <c r="C81">
         <v>0</v>
@@ -2337,10 +2340,10 @@
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A82" s="2" t="s">
-        <v>84</v>
+        <v>5</v>
       </c>
       <c r="B82" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="C82">
         <v>1</v>
@@ -2357,10 +2360,10 @@
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>84</v>
+        <v>5</v>
       </c>
       <c r="B83" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="C83">
         <v>2</v>
@@ -2377,10 +2380,10 @@
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A84" s="2" t="s">
-        <v>84</v>
+        <v>5</v>
       </c>
       <c r="B84" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="C84">
         <v>3</v>
@@ -2397,10 +2400,10 @@
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>84</v>
+        <v>5</v>
       </c>
       <c r="B85" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="C85">
         <v>4</v>
@@ -2417,10 +2420,10 @@
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A86" s="2" t="s">
-        <v>84</v>
+        <v>5</v>
       </c>
       <c r="B86" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="C86">
         <v>5</v>
@@ -2437,10 +2440,10 @@
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>84</v>
+        <v>5</v>
       </c>
       <c r="B87" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="C87">
         <v>6</v>
@@ -2457,10 +2460,10 @@
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A88" s="2" t="s">
-        <v>84</v>
+        <v>5</v>
       </c>
       <c r="B88" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="C88">
         <v>7</v>
@@ -2477,10 +2480,10 @@
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>84</v>
+        <v>5</v>
       </c>
       <c r="B89" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="C89">
         <v>8</v>
@@ -2497,10 +2500,10 @@
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A90" s="2" t="s">
-        <v>84</v>
+        <v>5</v>
       </c>
       <c r="B90" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="C90">
         <v>9</v>
@@ -2517,10 +2520,10 @@
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>84</v>
+        <v>5</v>
       </c>
       <c r="B91" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="C91">
         <v>10</v>
@@ -2537,10 +2540,10 @@
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A92" s="2" t="s">
-        <v>84</v>
+        <v>5</v>
       </c>
       <c r="B92" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="C92">
         <v>12</v>
@@ -2557,10 +2560,10 @@
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>84</v>
+        <v>5</v>
       </c>
       <c r="B93" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="C93">
         <v>14</v>
@@ -2577,10 +2580,10 @@
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A94" s="2" t="s">
-        <v>84</v>
+        <v>5</v>
       </c>
       <c r="B94" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="C94">
         <v>16</v>
@@ -2597,10 +2600,10 @@
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>84</v>
+        <v>5</v>
       </c>
       <c r="B95" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="C95">
         <v>18</v>
@@ -2617,10 +2620,10 @@
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A96" s="2" t="s">
-        <v>84</v>
+        <v>5</v>
       </c>
       <c r="B96" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="C96">
         <v>20</v>
@@ -2637,10 +2640,10 @@
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>84</v>
+        <v>5</v>
       </c>
       <c r="B97" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="C97">
         <v>22</v>
@@ -2657,10 +2660,10 @@
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A98" s="2" t="s">
-        <v>84</v>
+        <v>5</v>
       </c>
       <c r="B98" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="C98">
         <v>24</v>
@@ -2677,10 +2680,10 @@
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>84</v>
+        <v>5</v>
       </c>
       <c r="B99" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="C99">
         <v>26</v>
@@ -2697,10 +2700,10 @@
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A100" s="2" t="s">
-        <v>84</v>
+        <v>5</v>
       </c>
       <c r="B100" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="C100">
         <v>28</v>
@@ -2717,10 +2720,10 @@
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>84</v>
+        <v>5</v>
       </c>
       <c r="B101" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="C101">
         <v>30</v>
@@ -2737,10 +2740,10 @@
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A102" s="2" t="s">
-        <v>84</v>
+        <v>5</v>
       </c>
       <c r="B102" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="C102">
         <v>32</v>
@@ -2757,10 +2760,10 @@
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>84</v>
+        <v>5</v>
       </c>
       <c r="B103" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="C103">
         <v>34</v>
@@ -2777,10 +2780,10 @@
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A104" s="2" t="s">
-        <v>84</v>
+        <v>5</v>
       </c>
       <c r="B104" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="C104">
         <v>36</v>
@@ -2797,10 +2800,10 @@
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>84</v>
+        <v>5</v>
       </c>
       <c r="B105" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="C105">
         <v>38</v>
@@ -2817,10 +2820,10 @@
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A106" s="2" t="s">
-        <v>84</v>
+        <v>5</v>
       </c>
       <c r="B106" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="C106">
         <v>40</v>
@@ -2837,10 +2840,10 @@
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>84</v>
+        <v>5</v>
       </c>
       <c r="B107" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="C107">
         <v>42</v>
@@ -2857,10 +2860,10 @@
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A108" s="2" t="s">
-        <v>84</v>
+        <v>5</v>
       </c>
       <c r="B108" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="C108">
         <v>44</v>

--- a/index/data/pw_P_photometric.xlsx
+++ b/index/data/pw_P_photometric.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\harmv\Documents\studie\scriptie\Master\Master_Thesis\index\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BD42BCF-164D-4237-96FB-AD20694F7652}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26FA3400-F0B1-4F4F-877D-35D11FCE79BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -54,9 +54,6 @@
     <t>D</t>
   </si>
   <si>
-    <t>P</t>
-  </si>
-  <si>
     <t>Fetot</t>
   </si>
   <si>
@@ -385,6 +382,9 @@
   </si>
   <si>
     <t>BL-D1.1-pw-26</t>
+  </si>
+  <si>
+    <t>P_phot</t>
   </si>
 </sst>
 </file>
@@ -717,15 +717,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F108"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A57" workbookViewId="0">
-      <selection activeCell="H118" sqref="G118:H122"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -734,10 +734,10 @@
         <v>1</v>
       </c>
       <c r="D1" t="s">
+        <v>116</v>
+      </c>
+      <c r="E1" t="s">
         <v>6</v>
-      </c>
-      <c r="E1" t="s">
-        <v>7</v>
       </c>
       <c r="F1" t="s">
         <v>2</v>
@@ -748,7 +748,7 @@
         <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C2">
         <v>0</v>
@@ -768,7 +768,7 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C3">
         <v>1</v>
@@ -788,7 +788,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C4">
         <v>2</v>
@@ -808,7 +808,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C5">
         <v>3</v>
@@ -828,7 +828,7 @@
         <v>3</v>
       </c>
       <c r="B6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C6">
         <v>4</v>
@@ -848,7 +848,7 @@
         <v>3</v>
       </c>
       <c r="B7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C7">
         <v>5</v>
@@ -868,7 +868,7 @@
         <v>3</v>
       </c>
       <c r="B8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C8">
         <v>6</v>
@@ -888,7 +888,7 @@
         <v>3</v>
       </c>
       <c r="B9" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C9">
         <v>7</v>
@@ -908,7 +908,7 @@
         <v>3</v>
       </c>
       <c r="B10" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C10">
         <v>8</v>
@@ -928,7 +928,7 @@
         <v>3</v>
       </c>
       <c r="B11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C11">
         <v>9</v>
@@ -948,7 +948,7 @@
         <v>3</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C12">
         <v>10</v>
@@ -968,7 +968,7 @@
         <v>3</v>
       </c>
       <c r="B13" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C13">
         <v>12</v>
@@ -988,7 +988,7 @@
         <v>3</v>
       </c>
       <c r="B14" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C14">
         <v>14</v>
@@ -1008,7 +1008,7 @@
         <v>3</v>
       </c>
       <c r="B15" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C15">
         <v>16</v>
@@ -1028,7 +1028,7 @@
         <v>3</v>
       </c>
       <c r="B16" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C16">
         <v>18</v>
@@ -1048,7 +1048,7 @@
         <v>3</v>
       </c>
       <c r="B17" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C17">
         <v>20</v>
@@ -1068,7 +1068,7 @@
         <v>3</v>
       </c>
       <c r="B18" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C18">
         <v>22</v>
@@ -1088,7 +1088,7 @@
         <v>3</v>
       </c>
       <c r="B19" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C19">
         <v>24</v>
@@ -1108,7 +1108,7 @@
         <v>3</v>
       </c>
       <c r="B20" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C20">
         <v>26</v>
@@ -1128,7 +1128,7 @@
         <v>3</v>
       </c>
       <c r="B21" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C21">
         <v>28</v>
@@ -1148,7 +1148,7 @@
         <v>3</v>
       </c>
       <c r="B22" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C22">
         <v>30</v>
@@ -1168,7 +1168,7 @@
         <v>3</v>
       </c>
       <c r="B23" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C23">
         <v>32</v>
@@ -1188,7 +1188,7 @@
         <v>3</v>
       </c>
       <c r="B24" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C24">
         <v>34</v>
@@ -1208,7 +1208,7 @@
         <v>3</v>
       </c>
       <c r="B25" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C25">
         <v>36</v>
@@ -1228,7 +1228,7 @@
         <v>3</v>
       </c>
       <c r="B26" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C26">
         <v>38</v>
@@ -1248,7 +1248,7 @@
         <v>4</v>
       </c>
       <c r="B27" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C27">
         <v>0</v>
@@ -1268,7 +1268,7 @@
         <v>4</v>
       </c>
       <c r="B28" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C28">
         <v>1</v>
@@ -1288,7 +1288,7 @@
         <v>4</v>
       </c>
       <c r="B29" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C29">
         <v>2</v>
@@ -1308,7 +1308,7 @@
         <v>4</v>
       </c>
       <c r="B30" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C30">
         <v>3</v>
@@ -1328,7 +1328,7 @@
         <v>4</v>
       </c>
       <c r="B31" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C31">
         <v>4</v>
@@ -1348,7 +1348,7 @@
         <v>4</v>
       </c>
       <c r="B32" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C32">
         <v>5</v>
@@ -1368,7 +1368,7 @@
         <v>4</v>
       </c>
       <c r="B33" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C33">
         <v>6</v>
@@ -1388,7 +1388,7 @@
         <v>4</v>
       </c>
       <c r="B34" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C34">
         <v>7</v>
@@ -1408,7 +1408,7 @@
         <v>4</v>
       </c>
       <c r="B35" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C35">
         <v>8</v>
@@ -1428,7 +1428,7 @@
         <v>4</v>
       </c>
       <c r="B36" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C36">
         <v>9</v>
@@ -1448,7 +1448,7 @@
         <v>4</v>
       </c>
       <c r="B37" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C37">
         <v>10</v>
@@ -1468,7 +1468,7 @@
         <v>4</v>
       </c>
       <c r="B38" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C38">
         <v>12</v>
@@ -1488,7 +1488,7 @@
         <v>4</v>
       </c>
       <c r="B39" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C39">
         <v>14</v>
@@ -1508,7 +1508,7 @@
         <v>4</v>
       </c>
       <c r="B40" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C40">
         <v>16</v>
@@ -1528,7 +1528,7 @@
         <v>4</v>
       </c>
       <c r="B41" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C41">
         <v>18</v>
@@ -1548,7 +1548,7 @@
         <v>4</v>
       </c>
       <c r="B42" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C42">
         <v>20</v>
@@ -1568,7 +1568,7 @@
         <v>4</v>
       </c>
       <c r="B43" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C43">
         <v>22</v>
@@ -1588,7 +1588,7 @@
         <v>4</v>
       </c>
       <c r="B44" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C44">
         <v>24</v>
@@ -1608,7 +1608,7 @@
         <v>4</v>
       </c>
       <c r="B45" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C45">
         <v>26</v>
@@ -1628,7 +1628,7 @@
         <v>4</v>
       </c>
       <c r="B46" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C46">
         <v>28</v>
@@ -1648,7 +1648,7 @@
         <v>4</v>
       </c>
       <c r="B47" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C47">
         <v>30</v>
@@ -1668,7 +1668,7 @@
         <v>4</v>
       </c>
       <c r="B48" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C48">
         <v>32</v>
@@ -1688,7 +1688,7 @@
         <v>4</v>
       </c>
       <c r="B49" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C49">
         <v>34</v>
@@ -1708,7 +1708,7 @@
         <v>4</v>
       </c>
       <c r="B50" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C50">
         <v>36</v>
@@ -1728,7 +1728,7 @@
         <v>4</v>
       </c>
       <c r="B51" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C51">
         <v>38</v>
@@ -1748,7 +1748,7 @@
         <v>4</v>
       </c>
       <c r="B52" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C52">
         <v>40</v>
@@ -1765,10 +1765,10 @@
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B53" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C53">
         <v>0</v>
@@ -1785,10 +1785,10 @@
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B54" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C54">
         <v>1</v>
@@ -1805,10 +1805,10 @@
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B55" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C55">
         <v>2</v>
@@ -1825,10 +1825,10 @@
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B56" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C56">
         <v>3</v>
@@ -1845,10 +1845,10 @@
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B57" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C57">
         <v>4</v>
@@ -1865,10 +1865,10 @@
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B58" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C58">
         <v>5</v>
@@ -1885,10 +1885,10 @@
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B59" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C59">
         <v>6</v>
@@ -1905,10 +1905,10 @@
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B60" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C60">
         <v>7</v>
@@ -1925,10 +1925,10 @@
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B61" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C61">
         <v>8</v>
@@ -1945,10 +1945,10 @@
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B62" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C62">
         <v>9</v>
@@ -1965,10 +1965,10 @@
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B63" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C63">
         <v>10</v>
@@ -1985,10 +1985,10 @@
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B64" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C64">
         <v>12</v>
@@ -2005,10 +2005,10 @@
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B65" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C65">
         <v>14</v>
@@ -2025,10 +2025,10 @@
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A66" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B66" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C66">
         <v>16</v>
@@ -2045,10 +2045,10 @@
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B67" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C67">
         <v>18</v>
@@ -2060,10 +2060,10 @@
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A68" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B68" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C68">
         <v>20</v>
@@ -2080,10 +2080,10 @@
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B69" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C69">
         <v>22</v>
@@ -2100,10 +2100,10 @@
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A70" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B70" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C70">
         <v>24</v>
@@ -2120,10 +2120,10 @@
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B71" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C71">
         <v>26</v>
@@ -2140,10 +2140,10 @@
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A72" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B72" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C72">
         <v>28</v>
@@ -2160,10 +2160,10 @@
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B73" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C73">
         <v>30</v>
@@ -2180,10 +2180,10 @@
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A74" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B74" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C74">
         <v>32</v>
@@ -2200,10 +2200,10 @@
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B75" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C75">
         <v>34</v>
@@ -2220,10 +2220,10 @@
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A76" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B76" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C76">
         <v>36</v>
@@ -2240,10 +2240,10 @@
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B77" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C77">
         <v>38</v>
@@ -2260,10 +2260,10 @@
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A78" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B78" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C78">
         <v>40</v>
@@ -2280,10 +2280,10 @@
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B79" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C79">
         <v>42</v>
@@ -2300,10 +2300,10 @@
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A80" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B80" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C80">
         <v>44</v>
@@ -2323,7 +2323,7 @@
         <v>5</v>
       </c>
       <c r="B81" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C81">
         <v>0</v>
@@ -2343,7 +2343,7 @@
         <v>5</v>
       </c>
       <c r="B82" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C82">
         <v>1</v>
@@ -2363,7 +2363,7 @@
         <v>5</v>
       </c>
       <c r="B83" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C83">
         <v>2</v>
@@ -2383,7 +2383,7 @@
         <v>5</v>
       </c>
       <c r="B84" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C84">
         <v>3</v>
@@ -2403,7 +2403,7 @@
         <v>5</v>
       </c>
       <c r="B85" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C85">
         <v>4</v>
@@ -2423,7 +2423,7 @@
         <v>5</v>
       </c>
       <c r="B86" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C86">
         <v>5</v>
@@ -2443,7 +2443,7 @@
         <v>5</v>
       </c>
       <c r="B87" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C87">
         <v>6</v>
@@ -2463,7 +2463,7 @@
         <v>5</v>
       </c>
       <c r="B88" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C88">
         <v>7</v>
@@ -2483,7 +2483,7 @@
         <v>5</v>
       </c>
       <c r="B89" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C89">
         <v>8</v>
@@ -2503,7 +2503,7 @@
         <v>5</v>
       </c>
       <c r="B90" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C90">
         <v>9</v>
@@ -2523,7 +2523,7 @@
         <v>5</v>
       </c>
       <c r="B91" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C91">
         <v>10</v>
@@ -2543,7 +2543,7 @@
         <v>5</v>
       </c>
       <c r="B92" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C92">
         <v>12</v>
@@ -2563,7 +2563,7 @@
         <v>5</v>
       </c>
       <c r="B93" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C93">
         <v>14</v>
@@ -2583,7 +2583,7 @@
         <v>5</v>
       </c>
       <c r="B94" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C94">
         <v>16</v>
@@ -2603,7 +2603,7 @@
         <v>5</v>
       </c>
       <c r="B95" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C95">
         <v>18</v>
@@ -2623,7 +2623,7 @@
         <v>5</v>
       </c>
       <c r="B96" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C96">
         <v>20</v>
@@ -2643,7 +2643,7 @@
         <v>5</v>
       </c>
       <c r="B97" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C97">
         <v>22</v>
@@ -2663,7 +2663,7 @@
         <v>5</v>
       </c>
       <c r="B98" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C98">
         <v>24</v>
@@ -2683,7 +2683,7 @@
         <v>5</v>
       </c>
       <c r="B99" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C99">
         <v>26</v>
@@ -2703,7 +2703,7 @@
         <v>5</v>
       </c>
       <c r="B100" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C100">
         <v>28</v>
@@ -2723,7 +2723,7 @@
         <v>5</v>
       </c>
       <c r="B101" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C101">
         <v>30</v>
@@ -2743,7 +2743,7 @@
         <v>5</v>
       </c>
       <c r="B102" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C102">
         <v>32</v>
@@ -2763,7 +2763,7 @@
         <v>5</v>
       </c>
       <c r="B103" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C103">
         <v>34</v>
@@ -2783,7 +2783,7 @@
         <v>5</v>
       </c>
       <c r="B104" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C104">
         <v>36</v>
@@ -2803,7 +2803,7 @@
         <v>5</v>
       </c>
       <c r="B105" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C105">
         <v>38</v>
@@ -2823,7 +2823,7 @@
         <v>5</v>
       </c>
       <c r="B106" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C106">
         <v>40</v>
@@ -2843,7 +2843,7 @@
         <v>5</v>
       </c>
       <c r="B107" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C107">
         <v>42</v>
@@ -2863,7 +2863,7 @@
         <v>5</v>
       </c>
       <c r="B108" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C108">
         <v>44</v>

--- a/index/data/pw_P_photometric.xlsx
+++ b/index/data/pw_P_photometric.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\harmv\Documents\studie\scriptie\Master\Master_Thesis\index\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26FA3400-F0B1-4F4F-877D-35D11FCE79BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{562DF503-067F-488A-A777-BC981B8972E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="351" uniqueCount="184">
   <si>
     <t>Sample</t>
   </si>
@@ -42,9 +42,6 @@
     <t>depth</t>
   </si>
   <si>
-    <t>P/Fe</t>
-  </si>
-  <si>
     <t>A</t>
   </si>
   <si>
@@ -63,18 +60,6 @@
     <t>C</t>
   </si>
   <si>
-    <t>BL-A-sw1</t>
-  </si>
-  <si>
-    <t>BL-D-sw1</t>
-  </si>
-  <si>
-    <t>BL-C-sw1</t>
-  </si>
-  <si>
-    <t>BL-B-sw1</t>
-  </si>
-  <si>
     <t>BL-A1.1-pw-0</t>
   </si>
   <si>
@@ -385,14 +370,231 @@
   </si>
   <si>
     <t>P_phot</t>
+  </si>
+  <si>
+    <t>FeII</t>
+  </si>
+  <si>
+    <t>BL-A3.1-sw</t>
+  </si>
+  <si>
+    <t>BL-A3.1-pw-0</t>
+  </si>
+  <si>
+    <t>BL-A3.1-pw-1</t>
+  </si>
+  <si>
+    <t>BL-A3.1-pw-2</t>
+  </si>
+  <si>
+    <t>BL-A3.1-pw-3</t>
+  </si>
+  <si>
+    <t>BL-A3.1-pw-4</t>
+  </si>
+  <si>
+    <t>BL-A3.1-pw-5</t>
+  </si>
+  <si>
+    <t>BL-A3.1-pw-6</t>
+  </si>
+  <si>
+    <t>BL-A3.1-pw-7</t>
+  </si>
+  <si>
+    <t>BL-A3.1-pw-8</t>
+  </si>
+  <si>
+    <t>BL-A3.1-pw-9</t>
+  </si>
+  <si>
+    <t>BL-A3.1-pw-10</t>
+  </si>
+  <si>
+    <t>BL-A3.1-pw-11</t>
+  </si>
+  <si>
+    <t>BL-A3.1-pw-12</t>
+  </si>
+  <si>
+    <t>BL-A3.1-pw-13</t>
+  </si>
+  <si>
+    <t>BL-A3.1-pw-14</t>
+  </si>
+  <si>
+    <t>BL-B3.1-sw</t>
+  </si>
+  <si>
+    <t>BL-B3.1-pw-0</t>
+  </si>
+  <si>
+    <t>BL-B3.1-pw-1</t>
+  </si>
+  <si>
+    <t>BL-B3.1-pw-2</t>
+  </si>
+  <si>
+    <t>BL-B3.1-pw-3</t>
+  </si>
+  <si>
+    <t>BL-B3.1-pw-4</t>
+  </si>
+  <si>
+    <t>BL-B3.1-pw-5</t>
+  </si>
+  <si>
+    <t>BL-B3.1-pw-6</t>
+  </si>
+  <si>
+    <t>BL-B3.1-pw-7</t>
+  </si>
+  <si>
+    <t>BL-B3.1-pw-8</t>
+  </si>
+  <si>
+    <t>BL-B3.1-pw-9</t>
+  </si>
+  <si>
+    <t>BL-B3.1-pw-10</t>
+  </si>
+  <si>
+    <t>BL-B3.1-pw-11</t>
+  </si>
+  <si>
+    <t>BL-B3.1-pw-12</t>
+  </si>
+  <si>
+    <t>BL-B3.1-pw-13</t>
+  </si>
+  <si>
+    <t>BL-B3.1-pw-14</t>
+  </si>
+  <si>
+    <t>BL-C3.1-sw</t>
+  </si>
+  <si>
+    <t>BL-C3.1-pw-0</t>
+  </si>
+  <si>
+    <t>BL-C3.1-pw-1</t>
+  </si>
+  <si>
+    <t>BL-C3.1-pw-2</t>
+  </si>
+  <si>
+    <t>BL-C3.1-pw-3</t>
+  </si>
+  <si>
+    <t>BL-C3.1-pw-4</t>
+  </si>
+  <si>
+    <t>BL-C3.1-pw-5</t>
+  </si>
+  <si>
+    <t>BL-C3.1-pw-6</t>
+  </si>
+  <si>
+    <t>BL-C3.1-pw-7</t>
+  </si>
+  <si>
+    <t>BL-C3.1-pw-8</t>
+  </si>
+  <si>
+    <t>BL-C3.1-pw-9</t>
+  </si>
+  <si>
+    <t>BL-C3.1-pw-10</t>
+  </si>
+  <si>
+    <t>BL-C3.1-pw-11</t>
+  </si>
+  <si>
+    <t>BL-C3.1-pw-12</t>
+  </si>
+  <si>
+    <t>BL-C3.1-pw-13</t>
+  </si>
+  <si>
+    <t>BL-C3.1-pw-14</t>
+  </si>
+  <si>
+    <t>BL-D3.1-sw</t>
+  </si>
+  <si>
+    <t>BL-D3.1-pw-0</t>
+  </si>
+  <si>
+    <t>BL-D3.1-pw-1</t>
+  </si>
+  <si>
+    <t>BL-D3.1-pw-2</t>
+  </si>
+  <si>
+    <t>BL-D3.1-pw-3</t>
+  </si>
+  <si>
+    <t>BL-D3.1-pw-4</t>
+  </si>
+  <si>
+    <t>BL-D3.1-pw-5</t>
+  </si>
+  <si>
+    <t>BL-D3.1-pw-6</t>
+  </si>
+  <si>
+    <t>BL-D3.1-pw-7</t>
+  </si>
+  <si>
+    <t>BL-D3.1-pw-8</t>
+  </si>
+  <si>
+    <t>BL-D3.1-pw-9</t>
+  </si>
+  <si>
+    <t>BL-D3.1-pw-10</t>
+  </si>
+  <si>
+    <t>BL-D3.1-pw-11</t>
+  </si>
+  <si>
+    <t>BL-D3.1-pw-12</t>
+  </si>
+  <si>
+    <t>BL-D3.1-pw-13</t>
+  </si>
+  <si>
+    <t>BL-D3.1-pw-14</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>BL-A1.-sw1</t>
+  </si>
+  <si>
+    <t>BL-B1.-sw1</t>
+  </si>
+  <si>
+    <t>BL-C1.-sw1</t>
+  </si>
+  <si>
+    <t>BL-D1.-sw1</t>
+  </si>
+  <si>
+    <t>NH</t>
+  </si>
+  <si>
+    <t>SH</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.000"/>
+    <numFmt numFmtId="165" formatCode="#,##0.000"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -431,10 +633,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -715,17 +920,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F108"/>
+  <dimension ref="A1:H172"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="J114" sqref="J114"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -734,21 +939,27 @@
         <v>1</v>
       </c>
       <c r="D1" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="E1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F1" t="s">
+        <v>182</v>
+      </c>
+      <c r="G1" t="s">
+        <v>112</v>
+      </c>
+      <c r="H1" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>3</v>
-      </c>
       <c r="B2" t="s">
-        <v>9</v>
+        <v>178</v>
       </c>
       <c r="C2">
         <v>0</v>
@@ -760,15 +971,21 @@
         <v>10.563871247840233</v>
       </c>
       <c r="F2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+        <v>38.580363381590928</v>
+      </c>
+      <c r="G2" s="1">
+        <v>7.209090874410335</v>
+      </c>
+      <c r="H2">
+        <v>0.24521148413061869</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="C3">
         <v>1</v>
@@ -779,16 +996,22 @@
       <c r="E3" s="1">
         <v>170.59224515093348</v>
       </c>
-      <c r="F3">
-        <v>3.171358316631484E-2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F3" s="5">
+        <v>34.274770694726271</v>
+      </c>
+      <c r="G3" s="1">
+        <v>155.979696767305</v>
+      </c>
+      <c r="H3">
+        <v>1.4304003240952758</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="C4">
         <v>2</v>
@@ -799,16 +1022,22 @@
       <c r="E4" s="1">
         <v>184.86774683720407</v>
       </c>
-      <c r="F4">
-        <v>3.2461889561417781E-2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F4" s="5">
+        <v>22.83455179004827</v>
+      </c>
+      <c r="G4" s="1">
+        <v>72.090908744103345</v>
+      </c>
+      <c r="H4">
+        <v>1.5121374854721485</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="C5">
         <v>3</v>
@@ -819,16 +1048,22 @@
       <c r="E5" s="1">
         <v>236.25955290777813</v>
       </c>
-      <c r="F5">
-        <v>3.2905977206589374E-2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F5" s="5">
+        <v>23.714568628869653</v>
+      </c>
+      <c r="G5" s="1">
+        <v>98.619841708705579</v>
+      </c>
+      <c r="H5">
+        <v>1.021714517210911</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B6" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="C6">
         <v>4</v>
@@ -839,16 +1074,22 @@
       <c r="E6" s="1">
         <v>116.34533874310526</v>
       </c>
-      <c r="F6">
-        <v>2.1098964898524329E-2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F6" s="5">
+        <v>34.978784165783381</v>
+      </c>
+      <c r="G6" s="1">
+        <v>37.67499570894369</v>
+      </c>
+      <c r="H6">
+        <v>0.81737161376872902</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B7" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="C7">
         <v>5</v>
@@ -859,16 +1100,22 @@
       <c r="E7" s="1">
         <v>262.66923102737871</v>
       </c>
-      <c r="F7">
-        <v>1.834636781818285E-2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F7" s="5">
+        <v>34.626777430254819</v>
+      </c>
+      <c r="G7" s="1">
+        <v>120.84678554391286</v>
+      </c>
+      <c r="H7">
+        <v>0.77650303308029245</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B8" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="C8">
         <v>6</v>
@@ -879,16 +1126,22 @@
       <c r="E8" s="1">
         <v>139.89991652545172</v>
       </c>
-      <c r="F8">
-        <v>4.8718480585999528E-3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F8" s="5">
+        <v>52.755124309975336</v>
+      </c>
+      <c r="G8" s="1">
+        <v>30.505013826618768</v>
+      </c>
+      <c r="H8">
+        <v>0.36781722619592805</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B9" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="C9">
         <v>7</v>
@@ -899,16 +1152,22 @@
       <c r="E9" s="1">
         <v>119.20043908035939</v>
       </c>
-      <c r="F9">
-        <v>4.0427924293959805E-2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F9" s="5">
+        <v>43.250942450704393</v>
+      </c>
+      <c r="G9" s="1">
+        <v>36.240999332478708</v>
+      </c>
+      <c r="H9">
+        <v>0.85824019445716548</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B10" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="C10">
         <v>8</v>
@@ -919,16 +1178,22 @@
       <c r="E10" s="1">
         <v>21.413252529405909</v>
       </c>
-      <c r="F10">
-        <v>0.11463770928198201</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F10" s="5">
+        <v>34.274770694726271</v>
+      </c>
+      <c r="G10" s="1">
+        <v>9.7120663678764707</v>
+      </c>
+      <c r="H10">
+        <v>0.6130287103265466</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B11" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C11">
         <v>9</v>
@@ -939,16 +1204,22 @@
       <c r="E11" s="1">
         <v>29.264778456854735</v>
       </c>
-      <c r="F11">
-        <v>0.36664130618709395</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F11" s="5">
+        <v>38.850858256597469</v>
+      </c>
+      <c r="G11" s="1">
+        <v>16.165050061968913</v>
+      </c>
+      <c r="H11">
+        <v>1.5121374854721485</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B12" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="C12">
         <v>10</v>
@@ -959,16 +1230,22 @@
       <c r="E12" s="1">
         <v>19.27192727646533</v>
       </c>
-      <c r="F12">
-        <v>0.28072393987960109</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F12" s="5">
+        <v>53.107131045503884</v>
+      </c>
+      <c r="G12" s="1">
+        <v>8.9950681796439866</v>
+      </c>
+      <c r="H12">
+        <v>0.57216012963811036</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B13" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="C13">
         <v>12</v>
@@ -979,16 +1256,22 @@
       <c r="E13" s="1">
         <v>41.398954890184726</v>
       </c>
-      <c r="F13">
-        <v>0.50189146358372638</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F13" s="5">
+        <v>56.099188297496596</v>
+      </c>
+      <c r="G13" s="1">
+        <v>29.071017450153782</v>
+      </c>
+      <c r="H13">
+        <v>2.5338520026830595</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B14" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="C14">
         <v>14</v>
@@ -999,16 +1282,22 @@
       <c r="E14" s="1">
         <v>44.967830311752365</v>
       </c>
-      <c r="F14">
-        <v>0.48834715757415953</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F14" s="5">
+        <v>55.571178194203767</v>
+      </c>
+      <c r="G14" s="1">
+        <v>28.354019261921287</v>
+      </c>
+      <c r="H14">
+        <v>2.2477719378640049</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B15" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="C15">
         <v>16</v>
@@ -1019,16 +1308,22 @@
       <c r="E15" s="1">
         <v>49.250480817633544</v>
       </c>
-      <c r="F15">
-        <v>0.60189782873515207</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F15" s="5">
+        <v>66.483386995588944</v>
+      </c>
+      <c r="G15" s="1">
+        <v>39.825990273641175</v>
+      </c>
+      <c r="H15">
+        <v>3.3103550357633522</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B16" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="C16">
         <v>18</v>
@@ -1039,16 +1334,22 @@
       <c r="E16" s="1">
         <v>33.5474289627359</v>
       </c>
-      <c r="F16">
-        <v>1.3769632921946442</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F16" s="5">
+        <v>74.93154864827423</v>
+      </c>
+      <c r="G16" s="1">
+        <v>27.637021073688796</v>
+      </c>
+      <c r="H16">
+        <v>6.579841490838267</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B17" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="C17">
         <v>20</v>
@@ -1059,16 +1360,22 @@
       <c r="E17" s="1">
         <v>16.559581956073874</v>
       </c>
-      <c r="F17">
-        <v>2.7538444704090685</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F17" s="5">
+        <v>92.883892160230459</v>
+      </c>
+      <c r="G17" s="1">
+        <v>15.498733216579915</v>
+      </c>
+      <c r="H17">
+        <v>2.0434290344218224</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B18" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="C18">
         <v>22</v>
@@ -1079,16 +1386,22 @@
       <c r="E18" s="1">
         <v>12.276931450192704</v>
       </c>
-      <c r="F18">
-        <v>6.7475826716245173</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F18" s="5">
+        <v>103.44409422608707</v>
+      </c>
+      <c r="G18" s="1">
+        <v>11.754413089022989</v>
+      </c>
+      <c r="H18">
+        <v>13.731843111314644</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B19" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="C19">
         <v>24</v>
@@ -1099,16 +1412,22 @@
       <c r="E19" s="1">
         <v>9.4932086213699396</v>
       </c>
-      <c r="F19">
-        <v>9.535601594548508</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F19" s="5">
+        <v>110.13222220112961</v>
+      </c>
+      <c r="G19" s="1">
+        <v>9.0457559754711738</v>
+      </c>
+      <c r="H19">
+        <v>17.736964018781418</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B20" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="C20">
         <v>26</v>
@@ -1119,16 +1438,22 @@
       <c r="E20" s="1">
         <v>3.8543854552930608</v>
       </c>
-      <c r="F20">
-        <v>25.172669337728255</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F20" s="5">
+        <v>123.86048488674319</v>
+      </c>
+      <c r="G20" s="1">
+        <v>3.6284417483675386</v>
+      </c>
+      <c r="H20">
+        <v>21.782953506936625</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B21" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="C21">
         <v>28</v>
@@ -1139,16 +1464,22 @@
       <c r="E21" s="1">
         <v>2.9978553541168265</v>
       </c>
-      <c r="F21">
-        <v>32.562023200807253</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F21" s="5">
+        <v>114.35630302747224</v>
+      </c>
+      <c r="G21" s="1">
+        <v>2.7521115057478331</v>
+      </c>
+      <c r="H21">
+        <v>21.210793377298515</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B22" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="C22">
         <v>30</v>
@@ -1159,16 +1490,22 @@
       <c r="E22" s="1">
         <v>1.5703051854897681</v>
       </c>
-      <c r="F22">
-        <v>68.186284435417093</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F22" s="5">
+        <v>128.78857918414298</v>
+      </c>
+      <c r="G22" s="1">
+        <v>1.3181165632792242</v>
+      </c>
+      <c r="H22">
+        <v>28.894086546724566</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B23" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="C23">
         <v>32</v>
@@ -1179,16 +1516,22 @@
       <c r="E23" s="1">
         <v>1.0706626264702974</v>
       </c>
-      <c r="F23">
-        <v>98.350384465962392</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F23" s="5">
+        <v>139.17277788223529</v>
+      </c>
+      <c r="G23" s="1">
+        <v>0.8401182491230218</v>
+      </c>
+      <c r="H23">
+        <v>31.836624356291992</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B24" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="C24">
         <v>34</v>
@@ -1199,16 +1542,22 @@
       <c r="E24" s="1">
         <v>0.99928511803894438</v>
       </c>
-      <c r="F24">
-        <v>97.68606960242154</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F24" s="5">
+        <v>138.29276104341389</v>
+      </c>
+      <c r="G24" s="1">
+        <v>0.68078547773762066</v>
+      </c>
+      <c r="H24">
+        <v>12.996208658922789</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B25" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="C25">
         <v>36</v>
@@ -1219,16 +1568,22 @@
       <c r="E25" s="1">
         <v>0.85653010117623951</v>
       </c>
-      <c r="F25">
-        <v>108.44652773843858</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F25" s="5">
+        <v>123.50847815121466</v>
+      </c>
+      <c r="G25" s="1">
+        <v>0.60111909204492009</v>
+      </c>
+      <c r="H25">
+        <v>27.014131835056492</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B26" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="C26">
         <v>38</v>
@@ -1239,16 +1594,22 @@
       <c r="E26" s="1">
         <v>0.71377508431353354</v>
       </c>
-      <c r="F26">
-        <v>104.46525967672966</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F26" s="5">
+        <v>136.8847341012997</v>
+      </c>
+      <c r="G26" s="1">
+        <v>0.52145270635221952</v>
+      </c>
+      <c r="H26">
+        <v>0.65389729101498306</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B27" t="s">
-        <v>12</v>
+        <v>179</v>
       </c>
       <c r="C27">
         <v>0</v>
@@ -1260,15 +1621,21 @@
         <v>3.3547428962735903</v>
       </c>
       <c r="F27">
-        <v>0.13711930071033543</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+        <v>20.865624416116454</v>
+      </c>
+      <c r="G27" s="1">
+        <v>2.405203013252633</v>
+      </c>
+      <c r="H27">
+        <v>0.12260574206530937</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B28" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="C28">
         <v>1</v>
@@ -1279,16 +1646,22 @@
       <c r="E28" s="1">
         <v>29.336155965286043</v>
       </c>
-      <c r="F28">
-        <v>2.6424738388082751</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F28" s="5">
+        <v>116.46834344064357</v>
+      </c>
+      <c r="G28" s="1">
+        <v>28.288837608445622</v>
+      </c>
+      <c r="H28">
+        <v>17.205672469831743</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B29" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="C29">
         <v>2</v>
@@ -1299,16 +1672,22 @@
       <c r="E29" s="1">
         <v>19.771569835484758</v>
       </c>
-      <c r="F29">
-        <v>1.858048607170433</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F29" s="5">
+        <v>15.970420447241471</v>
+      </c>
+      <c r="G29" s="1">
+        <v>18.752761704953468</v>
+      </c>
+      <c r="H29">
+        <v>4.8224925212355014</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B30" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="C30">
         <v>3</v>
@@ -1319,16 +1698,22 @@
       <c r="E30" s="1">
         <v>22.555292664307519</v>
       </c>
-      <c r="F30">
-        <v>1.6025273227519954</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F30" s="5">
+        <v>13.682376666305871</v>
+      </c>
+      <c r="G30" s="1">
+        <v>21.33395518259044</v>
+      </c>
+      <c r="H30">
+        <v>3.5964351005824073</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B31" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="C31">
         <v>4</v>
@@ -1339,16 +1724,22 @@
       <c r="E31" s="1">
         <v>9.8500961635267039</v>
       </c>
-      <c r="F31">
-        <v>2.7694650800067886</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F31" s="5">
+        <v>18.962477699234178</v>
+      </c>
+      <c r="G31" s="1">
+        <v>9.1449859826380653</v>
+      </c>
+      <c r="H31">
+        <v>2.5747205833714961</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B32" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="C32">
         <v>5</v>
@@ -1359,16 +1750,22 @@
       <c r="E32" s="1">
         <v>7.708770910586118</v>
       </c>
-      <c r="F32">
-        <v>4.3055044722845599</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F32" s="5">
+        <v>13.506373298541595</v>
+      </c>
+      <c r="G32" s="1">
+        <v>7.4241903308800827</v>
+      </c>
+      <c r="H32">
+        <v>7.1111330397879415</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B33" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="C33">
         <v>6</v>
@@ -1379,16 +1776,22 @@
       <c r="E33" s="1">
         <v>4.8536705733320016</v>
       </c>
-      <c r="F33">
-        <v>4.1590620394409079</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F33" s="5">
+        <v>19.490487802527007</v>
+      </c>
+      <c r="G33" s="1">
+        <v>4.4127979403036122</v>
+      </c>
+      <c r="H33">
+        <v>4.9859668439892468</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B34" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="C34">
         <v>7</v>
@@ -1399,16 +1802,22 @@
       <c r="E34" s="1">
         <v>2.2840802698032969</v>
       </c>
-      <c r="F34">
-        <v>10.90821438295681</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F34" s="5">
+        <v>27.234635984155194</v>
+      </c>
+      <c r="G34" s="1">
+        <v>1.9750041003131378</v>
+      </c>
+      <c r="H34">
+        <v>8.0919789763104166</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B35" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="C35">
         <v>8</v>
@@ -1419,16 +1828,22 @@
       <c r="E35" s="1">
         <v>1.784437710783827</v>
       </c>
-      <c r="F35">
-        <v>11.643881955142437</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F35" s="5">
+        <v>35.330790901311936</v>
+      </c>
+      <c r="G35" s="1">
+        <v>1.4731053685503923</v>
+      </c>
+      <c r="H35">
+        <v>11.238859689320021</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B36" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="C36">
         <v>9</v>
@@ -1439,16 +1854,22 @@
       <c r="E36" s="1">
         <v>1.0706626264702974</v>
       </c>
-      <c r="F36">
-        <v>27.135244775378279</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F36" s="5">
+        <v>36.914821211190421</v>
+      </c>
+      <c r="G36" s="1">
+        <v>0.8278069991411493</v>
+      </c>
+      <c r="H36">
+        <v>18.431729890484839</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B37" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="C37">
         <v>10</v>
@@ -1459,16 +1880,20 @@
       <c r="E37" s="1">
         <v>1.3561726601957091</v>
       </c>
-      <c r="F37">
-        <v>18.807562655326166</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F37" s="5"/>
+      <c r="G37" s="1">
+        <v>0.97120663678764696</v>
+      </c>
+      <c r="H37">
+        <v>9.2362992355866353</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B38" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="C38">
         <v>12</v>
@@ -1479,16 +1904,22 @@
       <c r="E38" s="1">
         <v>0.92790760960759144</v>
       </c>
-      <c r="F38">
-        <v>51.693479840093808</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F38" s="5">
+        <v>50.819087264568289</v>
+      </c>
+      <c r="G38" s="1">
+        <v>0.75610718031790003</v>
+      </c>
+      <c r="H38">
+        <v>110.34516785877841</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B39" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="C39">
         <v>14</v>
@@ -1499,16 +1930,20 @@
       <c r="E39" s="1">
         <v>0.85653010117623951</v>
       </c>
-      <c r="F39">
-        <v>62.901961657251164</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F39" s="5"/>
+      <c r="G39" s="1">
+        <v>0.61270754267140126</v>
+      </c>
+      <c r="H39">
+        <v>73.073022270924369</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B40" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="C40">
         <v>16</v>
@@ -1519,16 +1954,22 @@
       <c r="E40" s="1">
         <v>0.78515259274488658</v>
       </c>
-      <c r="F40">
-        <v>74.642743769059066</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F40" s="5">
+        <v>68.595427408760273</v>
+      </c>
+      <c r="G40" s="1">
+        <v>0.46930790502490261</v>
+      </c>
+      <c r="H40">
+        <v>77.159880339768009</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B41" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="C41">
         <v>18</v>
@@ -1539,16 +1980,22 @@
       <c r="E41" s="1">
         <v>0.6423975758821806</v>
       </c>
-      <c r="F41">
-        <v>105.95149606721348</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F41" s="5">
+        <v>88.835814701652097</v>
+      </c>
+      <c r="G41" s="1">
+        <v>0.39760808620165328</v>
+      </c>
+      <c r="H41">
+        <v>83.698853249917832</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B42" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="C42">
         <v>20</v>
@@ -1559,16 +2006,22 @@
       <c r="E42" s="1">
         <v>0.57102006745082767</v>
       </c>
-      <c r="F42">
-        <v>125.4060557230497</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F42" s="5">
+        <v>78.451616003559764</v>
+      </c>
+      <c r="G42" s="1">
+        <v>0.39760808620165328</v>
+      </c>
+      <c r="H42">
+        <v>80.265892472089178</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B43" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="C43">
         <v>22</v>
@@ -1579,16 +2032,22 @@
       <c r="E43" s="1">
         <v>0.6423975758821806</v>
       </c>
-      <c r="F43">
-        <v>118.83278748411493</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F43" s="5">
+        <v>94.995932573401788</v>
+      </c>
+      <c r="G43" s="1">
+        <v>0.39760808620165328</v>
+      </c>
+      <c r="H43">
+        <v>83.535378927164089</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B44" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="C44">
         <v>24</v>
@@ -1599,16 +2058,22 @@
       <c r="E44" s="1">
         <v>1.2134176433330033</v>
       </c>
-      <c r="F44">
-        <v>65.347014019996251</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F44" s="5">
+        <v>89.715831540473488</v>
+      </c>
+      <c r="G44" s="1">
+        <v>0.32590826737840395</v>
+      </c>
+      <c r="H44">
+        <v>79.775469503827935</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B45" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="C45">
         <v>26</v>
@@ -1619,16 +2084,22 @@
       <c r="E45" s="1">
         <v>0.49964255901947469</v>
       </c>
-      <c r="F45">
-        <v>161.06584267615557</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F45" s="5">
+        <v>95.34793930893035</v>
+      </c>
+      <c r="G45" s="1">
+        <v>0.25420844855515456</v>
+      </c>
+      <c r="H45">
+        <v>89.583928869052698</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B46" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="C46">
         <v>28</v>
@@ -1639,16 +2110,22 @@
       <c r="E46" s="1">
         <v>0.85653010117623951</v>
       </c>
-      <c r="F46">
-        <v>96.71535162661759</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F46" s="5">
+        <v>97.811986457630212</v>
+      </c>
+      <c r="G46" s="1">
+        <v>0.54100772384815199</v>
+      </c>
+      <c r="H46">
+        <v>68.005318265558245</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B47" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="C47">
         <v>30</v>
@@ -1659,16 +2136,22 @@
       <c r="E47" s="1">
         <v>0.92790760960759144</v>
       </c>
-      <c r="F47">
-        <v>89.275709193800978</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F47" s="5">
+        <v>107.66817505242973</v>
+      </c>
+      <c r="G47" s="1">
+        <v>0.68440736149465065</v>
+      </c>
+      <c r="H47">
+        <v>51.821360312937415</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B48" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="C48">
         <v>32</v>
@@ -1679,16 +2162,22 @@
       <c r="E48" s="1">
         <v>0.78515259274488658</v>
       </c>
-      <c r="F48">
-        <v>114.54128926166953</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F48" s="5">
+        <v>117.7003670149935</v>
+      </c>
+      <c r="G48" s="1">
+        <v>0.61270754267140126</v>
+      </c>
+      <c r="H48">
+        <v>78.958097890059207</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B49" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="C49">
         <v>34</v>
@@ -1699,16 +2188,22 @@
       <c r="E49" s="1">
         <v>0.42826505058812175</v>
       </c>
-      <c r="F49">
-        <v>227.93416240564881</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F49" s="5">
+        <v>116.64434680840785</v>
+      </c>
+      <c r="G49" s="1">
+        <v>0.32590826737840395</v>
+      </c>
+      <c r="H49">
+        <v>126.52912581139924</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B50" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="C50">
         <v>36</v>
@@ -1719,16 +2214,22 @@
       <c r="E50" s="1">
         <v>0.57102006745082767</v>
       </c>
-      <c r="F50">
-        <v>173.02082935338188</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F50" s="5">
+        <v>124.74050172556458</v>
+      </c>
+      <c r="G50" s="1">
+        <v>0.54100772384815199</v>
+      </c>
+      <c r="H50">
+        <v>139.93402027720637</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B51" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="C51">
         <v>38</v>
@@ -1739,16 +2240,22 @@
       <c r="E51" s="1">
         <v>0.85653010117623951</v>
       </c>
-      <c r="F51">
-        <v>107.75645855539028</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F51" s="5">
+        <v>141.9888317664637</v>
+      </c>
+      <c r="G51" s="1">
+        <v>0.68440736149465065</v>
+      </c>
+      <c r="H51">
+        <v>10.952779624500968</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B52" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="C52">
         <v>40</v>
@@ -1759,16 +2266,22 @@
       <c r="E52" s="1">
         <v>0.78515259274488658</v>
       </c>
-      <c r="F52">
-        <v>97.226826123366862</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F52" s="5">
+        <v>144.45287891516358</v>
+      </c>
+      <c r="G52" s="1">
+        <v>0.97120663678764696</v>
+      </c>
+      <c r="H52">
+        <v>1.7573489696027671</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B53" t="s">
-        <v>11</v>
+        <v>180</v>
       </c>
       <c r="C53">
         <v>0</v>
@@ -1780,15 +2293,21 @@
         <v>7.9942809443115292</v>
       </c>
       <c r="F53">
-        <v>0.10257332782174554</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+        <v>25.428511725405336</v>
+      </c>
+      <c r="G53" s="1">
+        <v>7.280790693233584</v>
+      </c>
+      <c r="H53">
+        <v>0.32694864550749148</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B54" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="C54">
         <v>1</v>
@@ -1799,16 +2318,22 @@
       <c r="E54" s="1">
         <v>146.32389228427348</v>
       </c>
-      <c r="F54">
-        <v>5.3131114416493076E-2</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F54" s="5">
+        <v>55.747181561968048</v>
+      </c>
+      <c r="G54" s="1">
+        <v>45.640193763671945</v>
+      </c>
+      <c r="H54">
+        <v>1.9616918730449495</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B55" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="C55">
         <v>2</v>
@@ -1819,16 +2344,22 @@
       <c r="E55" s="1">
         <v>139.1861414411382</v>
       </c>
-      <c r="F55">
-        <v>3.8869468598714083E-2</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F55" s="5">
+        <v>44.834972760582886</v>
+      </c>
+      <c r="G55" s="1">
+        <v>48.429968532431083</v>
+      </c>
+      <c r="H55">
+        <v>1.3486631627184029</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A56" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B56" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="C56">
         <v>3</v>
@@ -1839,16 +2370,22 @@
       <c r="E56" s="1">
         <v>120.62798924898644</v>
       </c>
-      <c r="F56">
-        <v>1.544998969705034E-2</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F56" s="5">
+        <v>26.178615777569533</v>
+      </c>
+      <c r="G56" s="1">
+        <v>39.10899208540868</v>
+      </c>
+      <c r="H56">
+        <v>0.57216012963811036</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B57" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="C57">
         <v>4</v>
@@ -1859,16 +2396,20 @@
       <c r="E57" s="1">
         <v>134.18971585094349</v>
       </c>
-      <c r="F57">
-        <v>1.3888554568093125E-2</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F57" s="5"/>
+      <c r="G57" s="1">
+        <v>34.090004767781224</v>
+      </c>
+      <c r="H57">
+        <v>0.6130287103265466</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A58" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B58" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="C58">
         <v>5</v>
@@ -1879,16 +2420,22 @@
       <c r="E58" s="1">
         <v>323.34011319402873</v>
       </c>
-      <c r="F58">
-        <v>1.6731890456400101E-2</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F58" s="5">
+        <v>42.194922244118729</v>
+      </c>
+      <c r="G58" s="1">
+        <v>186.8106188613022</v>
+      </c>
+      <c r="H58">
+        <v>0.6130287103265466</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B59" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="C59">
         <v>6</v>
@@ -1899,16 +2446,22 @@
       <c r="E59" s="1">
         <v>294.7891098214875</v>
       </c>
-      <c r="F59">
-        <v>2.0357456165634884E-2</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F59" s="5">
+        <v>37.970841417776079</v>
+      </c>
+      <c r="G59" s="1">
+        <v>104.35582721456554</v>
+      </c>
+      <c r="H59">
+        <v>0.6130287103265466</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A60" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B60" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="C60">
         <v>7</v>
@@ -1919,16 +2472,22 @@
       <c r="E60" s="1">
         <v>349.03601622931569</v>
       </c>
-      <c r="F60">
-        <v>1.0419830915696059E-2</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F60" s="5">
+        <v>34.274770694726271</v>
+      </c>
+      <c r="G60" s="1">
+        <v>216.20754457883439</v>
+      </c>
+      <c r="H60">
+        <v>0.53129154894967379</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B61" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="C61">
         <v>8</v>
@@ -1939,16 +2498,22 @@
       <c r="E61" s="1">
         <v>218.4151757999399</v>
       </c>
-      <c r="F61">
-        <v>5.8266837880508147E-3</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F61" s="5">
+        <v>34.626777430254819</v>
+      </c>
+      <c r="G61" s="1">
+        <v>99.336839896938073</v>
+      </c>
+      <c r="H61">
+        <v>0.44955438757280086</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A62" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B62" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="C62">
         <v>9</v>
@@ -1959,16 +2524,22 @@
       <c r="E62" s="1">
         <v>179.87132124700935</v>
       </c>
-      <c r="F62">
-        <v>2.0219433800695918E-2</v>
-      </c>
-    </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F62" s="5">
+        <v>39.906878463183126</v>
+      </c>
+      <c r="G62" s="1">
+        <v>99.336839896938073</v>
+      </c>
+      <c r="H62">
+        <v>0.65389729101498306</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B63" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="C63">
         <v>10</v>
@@ -1979,16 +2550,22 @@
       <c r="E63" s="1">
         <v>129.19329026074877</v>
       </c>
-      <c r="F63">
-        <v>4.1875946832868771E-2</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F63" s="5">
+        <v>45.714989599404277</v>
+      </c>
+      <c r="G63" s="1">
+        <v>57.7509449794535</v>
+      </c>
+      <c r="H63">
+        <v>0.7356344523918561</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A64" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B64" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="C64">
         <v>12</v>
@@ -1999,16 +2576,22 @@
       <c r="E64" s="1">
         <v>62.812207419590592</v>
       </c>
-      <c r="F64">
-        <v>0.24610179216971045</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F64" s="5">
+        <v>71.763488028517244</v>
+      </c>
+      <c r="G64" s="1">
+        <v>41.976984838338652</v>
+      </c>
+      <c r="H64">
+        <v>11.811019818958133</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B65" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="C65">
         <v>14</v>
@@ -2019,16 +2602,22 @@
       <c r="E65" s="1">
         <v>32.119878794108843</v>
       </c>
-      <c r="F65">
-        <v>1.051722918229582</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F65" s="5">
+        <v>72.46750149957434</v>
+      </c>
+      <c r="G65" s="1">
+        <v>26.920022885456302</v>
+      </c>
+      <c r="H65">
+        <v>3.4738293585170981</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A66" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B66" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="C66">
         <v>16</v>
@@ -2039,31 +2628,39 @@
       <c r="E66" s="1">
         <v>31.40610370979531</v>
       </c>
-      <c r="F66">
-        <v>1.3014665353687875</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F66" s="5">
+        <v>75.811565487095606</v>
+      </c>
+      <c r="G66" s="1">
+        <v>26.20302469722381</v>
+      </c>
+      <c r="H66">
+        <v>6.0076813612001567</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B67" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="C67">
         <v>18</v>
       </c>
       <c r="E67" s="1"/>
-      <c r="F67" t="e">
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F67" s="5"/>
+      <c r="G67" s="1"/>
+      <c r="H67">
+        <v>3.6373036812708439</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A68" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B68" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="C68">
         <v>20</v>
@@ -2074,16 +2671,22 @@
       <c r="E68" s="1">
         <v>31.40610370979531</v>
       </c>
-      <c r="F68">
-        <v>1.8284284569693057</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F68" s="5">
+        <v>93.411902263523288</v>
+      </c>
+      <c r="G68" s="1">
+        <v>28.354019261921287</v>
+      </c>
+      <c r="H68">
+        <v>5.8442070384464113</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B69" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="C69">
         <v>22</v>
@@ -2094,16 +2697,22 @@
       <c r="E69" s="1">
         <v>27.837228288227674</v>
       </c>
-      <c r="F69">
-        <v>2.2964042390483832</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F69" s="5">
+        <v>93.587905631287583</v>
+      </c>
+      <c r="G69" s="1">
+        <v>23.335031944293835</v>
+      </c>
+      <c r="H69">
+        <v>6.3346300067076493</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A70" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B70" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="C70">
         <v>24</v>
@@ -2114,16 +2723,22 @@
       <c r="E70" s="1">
         <v>45.681605396065898</v>
       </c>
-      <c r="F70">
-        <v>1.3217385500771759</v>
-      </c>
-    </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F70" s="5">
+        <v>108.02018178795829</v>
+      </c>
+      <c r="G70" s="1">
+        <v>40.542988461873662</v>
+      </c>
+      <c r="H70">
+        <v>6.4163671680845225</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B71" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="C71">
         <v>26</v>
@@ -2134,16 +2749,22 @@
       <c r="E71" s="1">
         <v>31.40610370979531</v>
       </c>
-      <c r="F71">
-        <v>2.2801101040554648</v>
-      </c>
-    </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F71" s="5">
+        <v>117.52436364722924</v>
+      </c>
+      <c r="G71" s="1">
+        <v>29.071017450153782</v>
+      </c>
+      <c r="H71">
+        <v>5.5172583929389196</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A72" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B72" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="C72">
         <v>28</v>
@@ -2154,16 +2775,22 @@
       <c r="E72" s="1">
         <v>24.268352866660027</v>
       </c>
-      <c r="F72">
-        <v>3.4621937644487488</v>
-      </c>
-    </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F72" s="5">
+        <v>116.46834344064357</v>
+      </c>
+      <c r="G72" s="1">
+        <v>20.46703919136386</v>
+      </c>
+      <c r="H72">
+        <v>5.2311783281198645</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B73" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="C73">
         <v>30</v>
@@ -2174,16 +2801,22 @@
       <c r="E73" s="1">
         <v>14.41825670313329</v>
       </c>
-      <c r="F73">
-        <v>7.8771652957502729</v>
-      </c>
-    </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F73" s="5">
+        <v>121.04443100251477</v>
+      </c>
+      <c r="G73" s="1">
+        <v>12.869742488720798</v>
+      </c>
+      <c r="H73">
+        <v>8.3371904604410343</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A74" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B74" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="C74">
         <v>32</v>
@@ -2194,16 +2827,22 @@
       <c r="E74" s="1">
         <v>4.9964255901947077</v>
       </c>
-      <c r="F74">
-        <v>25.097199909616361</v>
-      </c>
-    </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F74" s="5">
+        <v>138.64476777894248</v>
+      </c>
+      <c r="G74" s="1">
+        <v>4.6641047623726468</v>
+      </c>
+      <c r="H74">
+        <v>11.075385366566275</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B75" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="C75">
         <v>34</v>
@@ -2214,16 +2853,22 @@
       <c r="E75" s="1">
         <v>4.5681605396065894</v>
       </c>
-      <c r="F75">
-        <v>28.097002260250676</v>
-      </c>
-    </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F75" s="5">
+        <v>185.1096568687116</v>
+      </c>
+      <c r="G75" s="1">
+        <v>4.4251056052945446</v>
+      </c>
+      <c r="H75">
+        <v>12.75099717479217</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A76" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B76" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="C76">
         <v>36</v>
@@ -2234,16 +2879,22 @@
       <c r="E76" s="1">
         <v>3.7830079468617077</v>
       </c>
-      <c r="F76">
-        <v>34.865908034632461</v>
-      </c>
-    </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F76" s="5">
+        <v>154.66107424549165</v>
+      </c>
+      <c r="G76" s="1">
+        <v>3.5487753626748382</v>
+      </c>
+      <c r="H76">
+        <v>6.3346300067076493</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B77" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="C77">
         <v>38</v>
@@ -2254,16 +2905,22 @@
       <c r="E77" s="1">
         <v>2.3554577782346495</v>
       </c>
-      <c r="F77">
-        <v>59.509840866291924</v>
-      </c>
-    </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F77" s="5">
+        <v>148.3249530059777</v>
+      </c>
+      <c r="G77" s="1">
+        <v>2.1944468058989304</v>
+      </c>
+      <c r="H77">
+        <v>4.781623940547064</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A78" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B78" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="C78">
         <v>40</v>
@@ -2274,16 +2931,22 @@
       <c r="E78" s="1">
         <v>1.2847951517643563</v>
       </c>
-      <c r="F78">
-        <v>109.56142104356721</v>
-      </c>
-    </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F78" s="5">
+        <v>156.24510455537015</v>
+      </c>
+      <c r="G78" s="1">
+        <v>1.0791174062011226</v>
+      </c>
+      <c r="H78">
+        <v>17.982175502912035</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B79" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="C79">
         <v>42</v>
@@ -2294,16 +2957,22 @@
       <c r="E79" s="1">
         <v>2.4268352866660026</v>
       </c>
-      <c r="F79">
-        <v>57.51599759973687</v>
-      </c>
-    </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F79" s="5">
+        <v>147.62093953492058</v>
+      </c>
+      <c r="G79" s="1">
+        <v>2.0351140345135295</v>
+      </c>
+      <c r="H79">
+        <v>5.2311783281198645</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A80" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B80" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="C80">
         <v>44</v>
@@ -2314,16 +2983,20 @@
       <c r="E80" s="1">
         <v>2.5695903035287126</v>
       </c>
-      <c r="F80">
-        <v>42.819511348946477</v>
-      </c>
-    </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F80" s="5"/>
+      <c r="G80" s="1">
+        <v>2.1147804202062299</v>
+      </c>
+      <c r="H80">
+        <v>2.0434290344218224</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B81" t="s">
-        <v>10</v>
+        <v>181</v>
       </c>
       <c r="C81">
         <v>0</v>
@@ -2335,15 +3008,21 @@
         <v>6.7808633009785293</v>
       </c>
       <c r="F81">
-        <v>0.43357311149094185</v>
-      </c>
-    </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+        <v>29.991399034694208</v>
+      </c>
+      <c r="G81" s="1">
+        <v>5.2014959473593549</v>
+      </c>
+      <c r="H81">
+        <v>0.12260574206530937</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A82" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B82" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="C82">
         <v>1</v>
@@ -2354,16 +3033,22 @@
       <c r="E82" s="1">
         <v>8.8508110454877631</v>
       </c>
-      <c r="F82">
-        <v>16.505105246398642</v>
-      </c>
-    </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F82" s="5">
+        <v>61.555292698189191</v>
+      </c>
+      <c r="G82" s="1">
+        <v>8.5713874320520702</v>
+      </c>
+      <c r="H82">
+        <v>27.136737577121803</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B83" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="C83">
         <v>2</v>
@@ -2374,16 +3059,22 @@
       <c r="E83" s="1">
         <v>8.2797909780369388</v>
       </c>
-      <c r="F83">
-        <v>16.643977825873428</v>
-      </c>
-    </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F83" s="5">
+        <v>61.731296065953465</v>
+      </c>
+      <c r="G83" s="1">
+        <v>7.9977888814660778</v>
+      </c>
+      <c r="H83">
+        <v>35.146979392055343</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A84" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B84" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="C84">
         <v>3</v>
@@ -2394,16 +3085,22 @@
       <c r="E84" s="1">
         <v>4.7109155564692955</v>
       </c>
-      <c r="F84">
-        <v>26.241840955809192</v>
-      </c>
-    </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F84" s="5">
+        <v>56.627198400789432</v>
+      </c>
+      <c r="G84" s="1">
+        <v>4.484497759126862</v>
+      </c>
+      <c r="H84">
+        <v>64.899306133237076</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B85" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="C85">
         <v>4</v>
@@ -2414,16 +3111,22 @@
       <c r="E85" s="1">
         <v>5.0678030986260598</v>
       </c>
-      <c r="F85">
-        <v>24.97698104318739</v>
-      </c>
-    </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F85" s="5">
+        <v>63.843336479124794</v>
+      </c>
+      <c r="G85" s="1">
+        <v>4.6995972155966097</v>
+      </c>
+      <c r="H85">
+        <v>53.456103540474871</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A86" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B86" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="C86">
         <v>5</v>
@@ -2434,16 +3137,22 @@
       <c r="E86" s="1">
         <v>4.0685179805871199</v>
       </c>
-      <c r="F86">
-        <v>28.641956854814943</v>
-      </c>
-    </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F86" s="5">
+        <v>67.187400466646054</v>
+      </c>
+      <c r="G86" s="1">
+        <v>3.7674995708943695</v>
+      </c>
+      <c r="H86">
+        <v>57.379487286564768</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B87" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="C87">
         <v>6</v>
@@ -2454,16 +3163,22 @@
       <c r="E87" s="1">
         <v>2.9264778456854734</v>
       </c>
-      <c r="F87">
-        <v>36.991705316398466</v>
-      </c>
-    </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F87" s="5">
+        <v>68.06741730546743</v>
+      </c>
+      <c r="G87" s="1">
+        <v>2.6920022885456301</v>
+      </c>
+      <c r="H87">
+        <v>53.456103540474871</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A88" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B88" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="C88">
         <v>7</v>
@@ -2474,16 +3189,22 @@
       <c r="E88" s="1">
         <v>2.2127027613719439</v>
       </c>
-      <c r="F88">
-        <v>47.321772154608361</v>
-      </c>
-    </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F88" s="5">
+        <v>78.979626106852592</v>
+      </c>
+      <c r="G88" s="1">
+        <v>1.9033042814898884</v>
+      </c>
+      <c r="H88">
+        <v>52.802206249459893</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B89" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="C89">
         <v>8</v>
@@ -2494,16 +3215,22 @@
       <c r="E89" s="1">
         <v>2.1413252529405908</v>
       </c>
-      <c r="F89">
-        <v>48.071081540104018</v>
-      </c>
-    </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F89" s="5">
+        <v>120.69242426698622</v>
+      </c>
+      <c r="G89" s="1">
+        <v>1.6165050061968911</v>
+      </c>
+      <c r="H89">
+        <v>38.661677331260876</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A90" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B90" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="C90">
         <v>9</v>
@@ -2514,16 +3241,22 @@
       <c r="E90" s="1">
         <v>1.784437710783827</v>
       </c>
-      <c r="F90">
-        <v>61.991329550346151</v>
-      </c>
-    </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F90" s="5">
+        <v>81.971683358845297</v>
+      </c>
+      <c r="G90" s="1">
+        <v>1.4014055497271432</v>
+      </c>
+      <c r="H90">
+        <v>27.954109190890524</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B91" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="C91">
         <v>10</v>
@@ -2534,16 +3267,22 @@
       <c r="E91" s="1">
         <v>3.3547428962735903</v>
       </c>
-      <c r="F91">
-        <v>34.735990228179823</v>
-      </c>
-    </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F91" s="5">
+        <v>98.163993193158774</v>
+      </c>
+      <c r="G91" s="1">
+        <v>3.050501382661877</v>
+      </c>
+      <c r="H91">
+        <v>31.427938549407628</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A92" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B92" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="C92">
         <v>12</v>
@@ -2554,16 +3293,22 @@
       <c r="E92" s="1">
         <v>3.2119878794108843</v>
       </c>
-      <c r="F92">
-        <v>40.328217889982263</v>
-      </c>
-    </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F92" s="5">
+        <v>109.95621883336531</v>
+      </c>
+      <c r="G92" s="1">
+        <v>2.8354019261921288</v>
+      </c>
+      <c r="H92">
+        <v>37.926042878869019</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B93" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="C93">
         <v>14</v>
@@ -2574,16 +3319,22 @@
       <c r="E93" s="1">
         <v>3.2833653878422373</v>
       </c>
-      <c r="F93">
-        <v>39.991571644324793</v>
-      </c>
-    </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F93" s="5">
+        <v>103.62009759385137</v>
+      </c>
+      <c r="G93" s="1">
+        <v>3.050501382661877</v>
+      </c>
+      <c r="H93">
+        <v>34.002659132779122</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A94" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B94" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="C94">
         <v>16</v>
@@ -2594,16 +3345,20 @@
       <c r="E94" s="1">
         <v>3.497497913136296</v>
       </c>
-      <c r="F94">
-        <v>38.219094212760389</v>
-      </c>
-    </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F94" s="5"/>
+      <c r="G94" s="1">
+        <v>2.9071017450153782</v>
+      </c>
+      <c r="H94">
+        <v>34.084396294155994</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B95" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="C95">
         <v>18</v>
@@ -2614,16 +3369,22 @@
       <c r="E95" s="1">
         <v>2.9264778456854734</v>
       </c>
-      <c r="F95">
-        <v>47.090278726861349</v>
-      </c>
-    </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F95" s="5">
+        <v>125.79652193215024</v>
+      </c>
+      <c r="G95" s="1">
+        <v>2.1901035567828848</v>
+      </c>
+      <c r="H95">
+        <v>39.315574622275854</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A96" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B96" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="C96">
         <v>20</v>
@@ -2634,16 +3395,22 @@
       <c r="E96" s="1">
         <v>2.5695903035287087</v>
       </c>
-      <c r="F96">
-        <v>52.480479911622702</v>
-      </c>
-    </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F96" s="5">
+        <v>131.60463306837136</v>
+      </c>
+      <c r="G96" s="1">
+        <v>2.405203013252633</v>
+      </c>
+      <c r="H96">
+        <v>35.637402360316585</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B97" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="C97">
         <v>22</v>
@@ -2654,16 +3421,22 @@
       <c r="E97" s="1">
         <v>2.0699477445092378</v>
       </c>
-      <c r="F97">
-        <v>62.578269139627608</v>
-      </c>
-    </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F97" s="5">
+        <v>131.4286297006071</v>
+      </c>
+      <c r="G97" s="1">
+        <v>1.831604462666639</v>
+      </c>
+      <c r="H97">
+        <v>34.411344939663486</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A98" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B98" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="C98">
         <v>24</v>
@@ -2674,16 +3447,22 @@
       <c r="E98" s="1">
         <v>2.4268352866660026</v>
       </c>
-      <c r="F98">
-        <v>54.836905477314076</v>
-      </c>
-    </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F98" s="5">
+        <v>135.12470042365692</v>
+      </c>
+      <c r="G98" s="1">
+        <v>2.0467039191363861</v>
+      </c>
+      <c r="H98">
+        <v>36.495642554773745</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B99" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="C99">
         <v>26</v>
@@ -2694,16 +3473,22 @@
       <c r="E99" s="1">
         <v>2.4268352866660026</v>
       </c>
-      <c r="F99">
-        <v>57.51599759973687</v>
-      </c>
-    </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F99" s="5">
+        <v>137.23674083682823</v>
+      </c>
+      <c r="G99" s="1">
+        <v>2.1901035567828848</v>
+      </c>
+      <c r="H99">
+        <v>28.281057836398016</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A100" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B100" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="C100">
         <v>28</v>
@@ -2714,16 +3499,22 @@
       <c r="E100" s="1">
         <v>2.2840802698032969</v>
       </c>
-      <c r="F100">
-        <v>59.558091787861756</v>
-      </c>
-    </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F100" s="5">
+        <v>114.35630302747224</v>
+      </c>
+      <c r="G100" s="1">
+        <v>2.0467039191363861</v>
+      </c>
+      <c r="H100">
+        <v>32.000098679045735</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B101" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="C101">
         <v>30</v>
@@ -2734,16 +3525,22 @@
       <c r="E101" s="1">
         <v>2.2127027613719439</v>
       </c>
-      <c r="F101">
-        <v>63.349185438310748</v>
-      </c>
-    </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F101" s="5">
+        <v>139.34878124999955</v>
+      </c>
+      <c r="G101" s="1">
+        <v>1.9033042814898884</v>
+      </c>
+      <c r="H101">
+        <v>36.168693909266253</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A102" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B102" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="C102">
         <v>32</v>
@@ -2754,16 +3551,22 @@
       <c r="E102" s="1">
         <v>1.784437710783827</v>
       </c>
-      <c r="F102">
-        <v>78.552989943505267</v>
-      </c>
-    </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F102" s="5">
+        <v>133.36466674601414</v>
+      </c>
+      <c r="G102" s="1">
+        <v>1.5448051873736417</v>
+      </c>
+      <c r="H102">
+        <v>34.002659132779122</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B103" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="C103">
         <v>34</v>
@@ -2774,16 +3577,22 @@
       <c r="E103" s="1">
         <v>1.6416826939211211</v>
       </c>
-      <c r="F103">
-        <v>85.743720816704823</v>
-      </c>
-    </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F103" s="5">
+        <v>139.52478461776386</v>
+      </c>
+      <c r="G103" s="1">
+        <v>2.6920022885456301</v>
+      </c>
+      <c r="H103">
+        <v>28.362794997774891</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A104" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B104" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="C104">
         <v>36</v>
@@ -2794,16 +3603,22 @@
       <c r="E104" s="1">
         <v>4.5681605396065894</v>
       </c>
-      <c r="F104">
-        <v>30.943537640324909</v>
-      </c>
-    </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F104" s="5">
+        <v>140.75680819211379</v>
+      </c>
+      <c r="G104" s="1">
+        <v>1.2580059120806444</v>
+      </c>
+      <c r="H104">
+        <v>28.158452094332709</v>
+      </c>
+    </row>
+    <row r="105" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B105" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="C105">
         <v>38</v>
@@ -2814,16 +3629,22 @@
       <c r="E105" s="1">
         <v>1.2134176433330033</v>
       </c>
-      <c r="F105">
-        <v>116.98042583396287</v>
-      </c>
-    </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F105" s="5">
+        <v>161.70120895606274</v>
+      </c>
+      <c r="G105" s="1">
+        <v>1.0429064556108965</v>
+      </c>
+      <c r="H105">
+        <v>27.177606157810239</v>
+      </c>
+    </row>
+    <row r="106" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A106" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B106" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="C106">
         <v>40</v>
@@ -2834,16 +3655,22 @@
       <c r="E106" s="1">
         <v>1.0706626264702974</v>
       </c>
-      <c r="F106">
-        <v>129.81753921296468</v>
-      </c>
-    </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F106" s="5">
+        <v>149.20496984479908</v>
+      </c>
+      <c r="G106" s="1">
+        <v>0.89950681796439869</v>
+      </c>
+      <c r="H106">
+        <v>37.435619910607784</v>
+      </c>
+    </row>
+    <row r="107" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B107" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="C107">
         <v>42</v>
@@ -2854,16 +3681,22 @@
       <c r="E107" s="1">
         <v>1.1420401349016502</v>
       </c>
-      <c r="F107">
-        <v>114.97576847743353</v>
-      </c>
-    </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F107" s="5">
+        <v>202.18198354184645</v>
+      </c>
+      <c r="G107" s="1">
+        <v>1.0429064556108965</v>
+      </c>
+      <c r="H107">
+        <v>20.270816021464476</v>
+      </c>
+    </row>
+    <row r="108" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A108" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B108" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="C108">
         <v>44</v>
@@ -2874,8 +3707,1678 @@
       <c r="E108" s="1">
         <v>0.85653010117623951</v>
       </c>
-      <c r="F108">
-        <v>144.33012525694988</v>
+      <c r="F108" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="G108" s="1">
+        <v>0.68440736149465065</v>
+      </c>
+      <c r="H108">
+        <v>5.3946526508736099</v>
+      </c>
+    </row>
+    <row r="109" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A109" t="s">
+        <v>2</v>
+      </c>
+      <c r="B109" t="s">
+        <v>113</v>
+      </c>
+      <c r="C109">
+        <v>0</v>
+      </c>
+      <c r="D109" s="4">
+        <v>0.116552508868627</v>
+      </c>
+      <c r="E109" s="3">
+        <v>33.651178043489196</v>
+      </c>
+      <c r="F109">
+        <v>92.514273256655699</v>
+      </c>
+      <c r="G109" s="3">
+        <v>16.256491307292912</v>
+      </c>
+      <c r="H109">
+        <v>4.9042296826124002E-2</v>
+      </c>
+    </row>
+    <row r="110" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A110" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B110" t="s">
+        <v>114</v>
+      </c>
+      <c r="C110">
+        <v>1</v>
+      </c>
+      <c r="D110" s="4">
+        <v>7.5180384194908783</v>
+      </c>
+      <c r="E110" s="3">
+        <v>140.75980021189645</v>
+      </c>
+      <c r="F110">
+        <v>95.865815403200784</v>
+      </c>
+      <c r="G110" s="3">
+        <v>126.84704347607943</v>
+      </c>
+      <c r="H110">
+        <v>0.70702644590995034</v>
+      </c>
+    </row>
+    <row r="111" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A111" t="s">
+        <v>2</v>
+      </c>
+      <c r="B111" t="s">
+        <v>115</v>
+      </c>
+      <c r="C111">
+        <v>2</v>
+      </c>
+      <c r="D111" s="4">
+        <v>15.919725128845867</v>
+      </c>
+      <c r="E111" s="3">
+        <v>216.23530598859793</v>
+      </c>
+      <c r="F111">
+        <v>95.990717594997506</v>
+      </c>
+      <c r="G111" s="3">
+        <v>211.08351521537347</v>
+      </c>
+      <c r="H111">
+        <v>0.8868482009390708</v>
+      </c>
+    </row>
+    <row r="112" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A112" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B112" t="s">
+        <v>116</v>
+      </c>
+      <c r="C112">
+        <v>3</v>
+      </c>
+      <c r="D112" s="4">
+        <v>8.9849995909655647</v>
+      </c>
+      <c r="E112" s="3">
+        <v>231.77438070733058</v>
+      </c>
+      <c r="F112">
+        <v>124.2186129410542</v>
+      </c>
+      <c r="G112" s="3">
+        <v>218.39642758586092</v>
+      </c>
+      <c r="H112">
+        <v>0.64572357487729559</v>
+      </c>
+    </row>
+    <row r="113" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A113" t="s">
+        <v>2</v>
+      </c>
+      <c r="B113" t="s">
+        <v>117</v>
+      </c>
+      <c r="C113">
+        <v>4</v>
+      </c>
+      <c r="D113" s="4">
+        <v>21.387489495251494</v>
+      </c>
+      <c r="E113" s="3">
+        <v>225.73911507996567</v>
+      </c>
+      <c r="F113">
+        <v>107.60662143209164</v>
+      </c>
+      <c r="G113" s="3">
+        <v>217.91349941045135</v>
+      </c>
+      <c r="H113">
+        <v>0.97675907845363119</v>
+      </c>
+    </row>
+    <row r="114" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A114" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B114" t="s">
+        <v>118</v>
+      </c>
+      <c r="C114">
+        <v>5</v>
+      </c>
+      <c r="D114" s="4">
+        <v>31.322817429330012</v>
+      </c>
+      <c r="E114" s="3">
+        <v>72.221381363200621</v>
+      </c>
+      <c r="F114">
+        <v>116.20405563409857</v>
+      </c>
+      <c r="G114" s="3">
+        <v>70.344446953162304</v>
+      </c>
+      <c r="H114">
+        <v>0.94406421390288175</v>
+      </c>
+    </row>
+    <row r="115" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A115" t="s">
+        <v>2</v>
+      </c>
+      <c r="B115" t="s">
+        <v>119</v>
+      </c>
+      <c r="C115">
+        <v>6</v>
+      </c>
+      <c r="D115" s="4">
+        <v>51.793593776726695</v>
+      </c>
+      <c r="E115" s="3">
+        <v>40.865748448615072</v>
+      </c>
+      <c r="F115">
+        <v>127.02891225648023</v>
+      </c>
+      <c r="G115" s="3">
+        <v>40.609869295802987</v>
+      </c>
+      <c r="H115">
+        <v>1.4957900531967743</v>
+      </c>
+    </row>
+    <row r="116" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A116" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B116" t="s">
+        <v>120</v>
+      </c>
+      <c r="C116">
+        <v>7</v>
+      </c>
+      <c r="D116" s="4">
+        <v>62.729122509537945</v>
+      </c>
+      <c r="E116" s="3">
+        <v>27.060945461883833</v>
+      </c>
+      <c r="F116">
+        <v>130.48453956285587</v>
+      </c>
+      <c r="G116" s="3">
+        <v>27.294849602368298</v>
+      </c>
+      <c r="H116">
+        <v>5.0309222827465261</v>
+      </c>
+    </row>
+    <row r="117" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A117" t="s">
+        <v>2</v>
+      </c>
+      <c r="B117" t="s">
+        <v>121</v>
+      </c>
+      <c r="C117">
+        <v>8</v>
+      </c>
+      <c r="D117" s="4">
+        <v>61.19548128481442</v>
+      </c>
+      <c r="E117" s="3">
+        <v>34.969224559810272</v>
+      </c>
+      <c r="F117">
+        <v>140.06037426727042</v>
+      </c>
+      <c r="G117" s="3">
+        <v>33.158977446627098</v>
+      </c>
+      <c r="H117">
+        <v>3.1387069968719183</v>
+      </c>
+    </row>
+    <row r="118" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A118" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B118" t="s">
+        <v>122</v>
+      </c>
+      <c r="C118">
+        <v>9</v>
+      </c>
+      <c r="D118" s="4">
+        <v>61.662241657556372</v>
+      </c>
+      <c r="E118" s="3">
+        <v>25.951011553402925</v>
+      </c>
+      <c r="F118">
+        <v>149.65702600365105</v>
+      </c>
+      <c r="G118" s="3">
+        <v>25.708085597451213</v>
+      </c>
+      <c r="H118">
+        <v>3.3185287519010394</v>
+      </c>
+    </row>
+    <row r="119" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A119" t="s">
+        <v>2</v>
+      </c>
+      <c r="B119" t="s">
+        <v>123</v>
+      </c>
+      <c r="C119">
+        <v>10</v>
+      </c>
+      <c r="D119" s="4">
+        <v>67.663446449952801</v>
+      </c>
+      <c r="E119" s="3">
+        <v>12.978658998032362</v>
+      </c>
+      <c r="F119">
+        <v>141.33021321720364</v>
+      </c>
+      <c r="G119" s="3">
+        <v>13.772860690900956</v>
+      </c>
+      <c r="H119">
+        <v>4.1849426624958923</v>
+      </c>
+    </row>
+    <row r="120" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A120" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B120" t="s">
+        <v>124</v>
+      </c>
+      <c r="C120">
+        <v>12</v>
+      </c>
+      <c r="D120" s="4">
+        <v>81.06613715297145</v>
+      </c>
+      <c r="E120" s="3">
+        <v>10.065082488269992</v>
+      </c>
+      <c r="F120">
+        <v>130.96333129807658</v>
+      </c>
+      <c r="G120" s="3">
+        <v>9.7714558089361283</v>
+      </c>
+      <c r="H120">
+        <v>21.472352293704507</v>
+      </c>
+    </row>
+    <row r="121" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A121" t="s">
+        <v>2</v>
+      </c>
+      <c r="B121" t="s">
+        <v>125</v>
+      </c>
+      <c r="C121">
+        <v>14</v>
+      </c>
+      <c r="D121" s="4">
+        <v>82.999858697188088</v>
+      </c>
+      <c r="E121" s="3">
+        <v>11.313758135311007</v>
+      </c>
+      <c r="F121">
+        <v>122.40753116000189</v>
+      </c>
+      <c r="G121" s="3">
+        <v>10.392363463034117</v>
+      </c>
+      <c r="H121">
+        <v>22.931360624281691</v>
+      </c>
+    </row>
+    <row r="122" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A122" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B122" t="s">
+        <v>126</v>
+      </c>
+      <c r="C122">
+        <v>16</v>
+      </c>
+      <c r="D122" s="4">
+        <v>88.534303116842565</v>
+      </c>
+      <c r="E122" s="3">
+        <v>7.4983603249078952</v>
+      </c>
+      <c r="F122">
+        <v>122.82387179932428</v>
+      </c>
+      <c r="G122" s="3">
+        <v>7.7707533679537146</v>
+      </c>
+      <c r="H122">
+        <v>24.484366690442272</v>
+      </c>
+    </row>
+    <row r="123" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A123" t="s">
+        <v>2</v>
+      </c>
+      <c r="B123" t="s">
+        <v>127</v>
+      </c>
+      <c r="C123">
+        <v>18</v>
+      </c>
+      <c r="D123" s="4">
+        <v>90.668064820805725</v>
+      </c>
+      <c r="E123" s="3">
+        <v>4.6541546844255839</v>
+      </c>
+      <c r="F123">
+        <v>124.07289371729138</v>
+      </c>
+      <c r="G123" s="3">
+        <v>5.9770201450039613</v>
+      </c>
+      <c r="H123">
+        <v>24.284110645068935</v>
+      </c>
+    </row>
+    <row r="124" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A124" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B124" t="s">
+        <v>128</v>
+      </c>
+      <c r="C124">
+        <v>20</v>
+      </c>
+      <c r="D124" s="4">
+        <v>93.001866684515448</v>
+      </c>
+      <c r="E124" s="3">
+        <v>2.5730286060238869</v>
+      </c>
+      <c r="F124">
+        <v>129.27715170882098</v>
+      </c>
+      <c r="G124" s="3">
+        <v>3.976317704021548</v>
+      </c>
+      <c r="H124">
+        <v>24.778620471399019</v>
+      </c>
+    </row>
+    <row r="125" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A125" t="s">
+        <v>3</v>
+      </c>
+      <c r="B125" t="s">
+        <v>129</v>
+      </c>
+      <c r="C125">
+        <v>0</v>
+      </c>
+      <c r="D125" s="4">
+        <v>36.057101209998294</v>
+      </c>
+      <c r="E125" s="3">
+        <v>0.98569698804298167</v>
+      </c>
+      <c r="F125">
+        <v>94.179635813945183</v>
+      </c>
+      <c r="G125" s="3">
+        <v>1.2255086425328086</v>
+      </c>
+      <c r="H125">
+        <v>14.467477563706501</v>
+      </c>
+    </row>
+    <row r="126" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A126" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B126" t="s">
+        <v>130</v>
+      </c>
+      <c r="C126">
+        <v>1</v>
+      </c>
+      <c r="D126" s="4">
+        <v>46.925949889560705</v>
+      </c>
+      <c r="E126" s="3">
+        <v>1.4782301599313834</v>
+      </c>
+      <c r="F126">
+        <v>109.89649494836466</v>
+      </c>
+      <c r="G126" s="3">
+        <v>1.7360327136800453</v>
+      </c>
+      <c r="H126">
+        <v>158.03880152218372</v>
+      </c>
+    </row>
+    <row r="127" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A127" t="s">
+        <v>3</v>
+      </c>
+      <c r="B127" t="s">
+        <v>131</v>
+      </c>
+      <c r="C127">
+        <v>2</v>
+      </c>
+      <c r="D127" s="4">
+        <v>56.594557610643839</v>
+      </c>
+      <c r="E127" s="3">
+        <v>1.6655315069875356</v>
+      </c>
+      <c r="F127">
+        <v>109.08463070168602</v>
+      </c>
+      <c r="G127" s="3">
+        <v>2.0188906449913526</v>
+      </c>
+      <c r="H127">
+        <v>153.29804616232511</v>
+      </c>
+    </row>
+    <row r="128" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A128" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B128" t="s">
+        <v>132</v>
+      </c>
+      <c r="C128">
+        <v>3</v>
+      </c>
+      <c r="D128" s="4">
+        <v>61.995641923800612</v>
+      </c>
+      <c r="E128" s="3">
+        <v>0.70127642399475054</v>
+      </c>
+      <c r="F128">
+        <v>115.62117873904727</v>
+      </c>
+      <c r="G128" s="3">
+        <v>1.0047414766313012</v>
+      </c>
+      <c r="H128">
+        <v>167.92899804878539</v>
+      </c>
+    </row>
+    <row r="129" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A129" t="s">
+        <v>3</v>
+      </c>
+      <c r="B129" t="s">
+        <v>133</v>
+      </c>
+      <c r="C129">
+        <v>4</v>
+      </c>
+      <c r="D129" s="4">
+        <v>61.19548128481442</v>
+      </c>
+      <c r="E129" s="3">
+        <v>1.1244387266030949</v>
+      </c>
+      <c r="F129">
+        <v>114.20562056535123</v>
+      </c>
+      <c r="G129" s="3">
+        <v>1.3703870951556731</v>
+      </c>
+      <c r="H129">
+        <v>115.33113470276766</v>
+      </c>
+    </row>
+    <row r="130" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A130" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B130" t="s">
+        <v>134</v>
+      </c>
+      <c r="C130">
+        <v>5</v>
+      </c>
+      <c r="D130" s="4">
+        <v>60.195280486081685</v>
+      </c>
+      <c r="E130" s="3">
+        <v>0.72208768477876706</v>
+      </c>
+      <c r="F130">
+        <v>112.18636846463772</v>
+      </c>
+      <c r="G130" s="3">
+        <v>0.9909435287624565</v>
+      </c>
+      <c r="H130">
+        <v>114.96331747657172</v>
+      </c>
+    </row>
+    <row r="131" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A131" t="s">
+        <v>3</v>
+      </c>
+      <c r="B131" t="s">
+        <v>135</v>
+      </c>
+      <c r="C131">
+        <v>6</v>
+      </c>
+      <c r="D131" s="4">
+        <v>60.66204085882363</v>
+      </c>
+      <c r="E131" s="3">
+        <v>2.470233590636191</v>
+      </c>
+      <c r="F131">
+        <v>121.1793262740009</v>
+      </c>
+      <c r="G131" s="3">
+        <v>2.6122024033516542</v>
+      </c>
+      <c r="H131">
+        <v>92.567335259308564</v>
+      </c>
+    </row>
+    <row r="132" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A132" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B132" t="s">
+        <v>136</v>
+      </c>
+      <c r="C132">
+        <v>7</v>
+      </c>
+      <c r="D132" s="4">
+        <v>59.261759740597803</v>
+      </c>
+      <c r="E132" s="3">
+        <v>1.8736441148277052</v>
+      </c>
+      <c r="F132">
+        <v>129.31878577275327</v>
+      </c>
+      <c r="G132" s="3">
+        <v>2.2327588369584377</v>
+      </c>
+      <c r="H132">
+        <v>75.484268531542128</v>
+      </c>
+    </row>
+    <row r="133" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A133" t="s">
+        <v>3</v>
+      </c>
+      <c r="B133" t="s">
+        <v>137</v>
+      </c>
+      <c r="C133">
+        <v>8</v>
+      </c>
+      <c r="D133" s="4">
+        <v>67.330046183708546</v>
+      </c>
+      <c r="E133" s="3">
+        <v>1.5337268553554284</v>
+      </c>
+      <c r="F133">
+        <v>138.29092655015035</v>
+      </c>
+      <c r="G133" s="3">
+        <v>1.5014675999096934</v>
+      </c>
+      <c r="H133">
+        <v>73.890393884693111</v>
+      </c>
+    </row>
+    <row r="134" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A134" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B134" t="s">
+        <v>138</v>
+      </c>
+      <c r="C134">
+        <v>9</v>
+      </c>
+      <c r="D134" s="4">
+        <v>61.995641923800612</v>
+      </c>
+      <c r="E134" s="3">
+        <v>1.4782301599313834</v>
+      </c>
+      <c r="F134">
+        <v>143.26619719005268</v>
+      </c>
+      <c r="G134" s="3">
+        <v>1.6946388700735124</v>
+      </c>
+      <c r="H134">
+        <v>65.185386198056136</v>
+      </c>
+    </row>
+    <row r="135" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A135" t="s">
+        <v>3</v>
+      </c>
+      <c r="B135" t="s">
+        <v>139</v>
+      </c>
+      <c r="C135">
+        <v>10</v>
+      </c>
+      <c r="D135" s="4">
+        <v>65.262964532994218</v>
+      </c>
+      <c r="E135" s="3">
+        <v>0.99957116189899331</v>
+      </c>
+      <c r="F135">
+        <v>128.83999403753251</v>
+      </c>
+      <c r="G135" s="3">
+        <v>1.1841147989262766</v>
+      </c>
+      <c r="H135">
+        <v>68.740952717950108</v>
+      </c>
+    </row>
+    <row r="136" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A136" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B136" t="s">
+        <v>140</v>
+      </c>
+      <c r="C136">
+        <v>12</v>
+      </c>
+      <c r="D136" s="4">
+        <v>73.197890869607249</v>
+      </c>
+      <c r="E136" s="3">
+        <v>0.87470359719489188</v>
+      </c>
+      <c r="F136">
+        <v>112.64434316789232</v>
+      </c>
+      <c r="G136" s="3">
+        <v>1.1358219813853212</v>
+      </c>
+      <c r="H136">
+        <v>126.97868019897203</v>
+      </c>
+    </row>
+    <row r="137" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A137" t="s">
+        <v>3</v>
+      </c>
+      <c r="B137" t="s">
+        <v>141</v>
+      </c>
+      <c r="C137">
+        <v>14</v>
+      </c>
+      <c r="D137" s="4">
+        <v>75.331652573570437</v>
+      </c>
+      <c r="E137" s="3">
+        <v>0.98569698804298167</v>
+      </c>
+      <c r="F137">
+        <v>107.25273188866761</v>
+      </c>
+      <c r="G137" s="3">
+        <v>1.2117106946639649</v>
+      </c>
+      <c r="H137">
+        <v>137.11408820970428</v>
+      </c>
+    </row>
+    <row r="138" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A138" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B138" t="s">
+        <v>142</v>
+      </c>
+      <c r="C138">
+        <v>16</v>
+      </c>
+      <c r="D138" s="4">
+        <v>71.864289804630289</v>
+      </c>
+      <c r="E138" s="3">
+        <v>0.88857777105090263</v>
+      </c>
+      <c r="F138">
+        <v>125.71743924261474</v>
+      </c>
+      <c r="G138" s="3">
+        <v>1.1358219813853212</v>
+      </c>
+      <c r="H138">
+        <v>87.17268260843494</v>
+      </c>
+    </row>
+    <row r="139" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A139" t="s">
+        <v>3</v>
+      </c>
+      <c r="B139" t="s">
+        <v>143</v>
+      </c>
+      <c r="C139">
+        <v>18</v>
+      </c>
+      <c r="D139" s="4">
+        <v>72.864490603363009</v>
+      </c>
+      <c r="E139" s="3">
+        <v>0.62496846778668813</v>
+      </c>
+      <c r="F139">
+        <v>123.69818714190124</v>
+      </c>
+      <c r="G139" s="3">
+        <v>0.87366097187728098</v>
+      </c>
+      <c r="H139">
+        <v>88.194397125645864</v>
+      </c>
+    </row>
+    <row r="140" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A140" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B140" t="s">
+        <v>144</v>
+      </c>
+      <c r="C140">
+        <v>20</v>
+      </c>
+      <c r="D140" s="4">
+        <v>73.331250976104954</v>
+      </c>
+      <c r="E140" s="3">
+        <v>0.56947177236264324</v>
+      </c>
+      <c r="F140">
+        <v>124.15616184515585</v>
+      </c>
+      <c r="G140" s="3">
+        <v>0.83916610220517041</v>
+      </c>
+      <c r="H140">
+        <v>72.092176334401884</v>
+      </c>
+    </row>
+    <row r="141" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A141" t="s">
+        <v>7</v>
+      </c>
+      <c r="B141" t="s">
+        <v>145</v>
+      </c>
+      <c r="C141">
+        <v>0</v>
+      </c>
+      <c r="D141" s="4">
+        <v>4.7841562362880694</v>
+      </c>
+      <c r="E141" s="3">
+        <v>19.152666363957394</v>
+      </c>
+      <c r="F141">
+        <v>98.238957047338289</v>
+      </c>
+      <c r="G141" s="3">
+        <v>13.289932515491403</v>
+      </c>
+      <c r="H141">
+        <v>0.18799547116680793</v>
+      </c>
+    </row>
+    <row r="142" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A142" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B142" t="s">
+        <v>146</v>
+      </c>
+      <c r="C142">
+        <v>1</v>
+      </c>
+      <c r="D142" s="4">
+        <v>26.655213701910579</v>
+      </c>
+      <c r="E142" s="3">
+        <v>343.66959285606174</v>
+      </c>
+      <c r="F142">
+        <v>106.69067202558244</v>
+      </c>
+      <c r="G142" s="3">
+        <v>345.68249667594898</v>
+      </c>
+      <c r="H142">
+        <v>1.3159682981676533</v>
+      </c>
+    </row>
+    <row r="143" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A143" t="s">
+        <v>7</v>
+      </c>
+      <c r="B143" t="s">
+        <v>147</v>
+      </c>
+      <c r="C143">
+        <v>2</v>
+      </c>
+      <c r="D143" s="4">
+        <v>12.319002253408014</v>
+      </c>
+      <c r="E143" s="3">
+        <v>395.21214873114366</v>
+      </c>
+      <c r="F143">
+        <v>115.22565513169101</v>
+      </c>
+      <c r="G143" s="3">
+        <v>379.90140739068266</v>
+      </c>
+      <c r="H143">
+        <v>0.69476587170341964</v>
+      </c>
+    </row>
+    <row r="144" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A144" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B144" t="s">
+        <v>148</v>
+      </c>
+      <c r="C144">
+        <v>3</v>
+      </c>
+      <c r="D144" s="4">
+        <v>19.787168217279117</v>
+      </c>
+      <c r="E144" s="3">
+        <v>296.2892891377831</v>
+      </c>
+      <c r="F144">
+        <v>111.52022344172191</v>
+      </c>
+      <c r="G144" s="3">
+        <v>286.55829005795147</v>
+      </c>
+      <c r="H144">
+        <v>1.0503225236928166</v>
+      </c>
+    </row>
+    <row r="145" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A145" t="s">
+        <v>7</v>
+      </c>
+      <c r="B145" t="s">
+        <v>149</v>
+      </c>
+      <c r="C145">
+        <v>4</v>
+      </c>
+      <c r="D145" s="4">
+        <v>24.45477194469856</v>
+      </c>
+      <c r="E145" s="3">
+        <v>143.18778063669839</v>
+      </c>
+      <c r="F145">
+        <v>113.60192663833377</v>
+      </c>
+      <c r="G145" s="3">
+        <v>138.98923760066234</v>
+      </c>
+      <c r="H145">
+        <v>1.5816140726424903</v>
+      </c>
+    </row>
+    <row r="146" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A146" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B146" t="s">
+        <v>150</v>
+      </c>
+      <c r="C146">
+        <v>5</v>
+      </c>
+      <c r="D146" s="4">
+        <v>32.256338174813905</v>
+      </c>
+      <c r="E146" s="3">
+        <v>42.114424095656091</v>
+      </c>
+      <c r="F146">
+        <v>115.35055732348772</v>
+      </c>
+      <c r="G146" s="3">
+        <v>42.610571736785403</v>
+      </c>
+      <c r="H146">
+        <v>1.4263134660264321</v>
+      </c>
+    </row>
+    <row r="147" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A147" t="s">
+        <v>7</v>
+      </c>
+      <c r="B147" t="s">
+        <v>151</v>
+      </c>
+      <c r="C147">
+        <v>6</v>
+      </c>
+      <c r="D147" s="4">
+        <v>113.93940340465407</v>
+      </c>
+      <c r="E147" s="3">
+        <v>5.3478633772261492</v>
+      </c>
+      <c r="F147">
+        <v>80.440394716306955</v>
+      </c>
+      <c r="G147" s="3">
+        <v>6.5979277991019503</v>
+      </c>
+      <c r="H147">
+        <v>13.891230575999549</v>
+      </c>
+    </row>
+    <row r="148" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A148" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B148" t="s">
+        <v>152</v>
+      </c>
+      <c r="C148">
+        <v>7</v>
+      </c>
+      <c r="D148" s="4">
+        <v>53.193874894952522</v>
+      </c>
+      <c r="E148" s="3">
+        <v>29.280813278845635</v>
+      </c>
+      <c r="F148">
+        <v>136.23004038550459</v>
+      </c>
+      <c r="G148" s="3">
+        <v>29.640500740071818</v>
+      </c>
+      <c r="H148">
+        <v>3.3348761841764136</v>
+      </c>
+    </row>
+    <row r="149" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A149" t="s">
+        <v>7</v>
+      </c>
+      <c r="B149" t="s">
+        <v>153</v>
+      </c>
+      <c r="C149">
+        <v>8</v>
+      </c>
+      <c r="D149" s="4">
+        <v>69.530487940920565</v>
+      </c>
+      <c r="E149" s="3">
+        <v>62.023863579032316</v>
+      </c>
+      <c r="F149">
+        <v>141.8714560483227</v>
+      </c>
+      <c r="G149" s="3">
+        <v>64.135370412182397</v>
+      </c>
+      <c r="H149">
+        <v>1.7164803889143305</v>
+      </c>
+    </row>
+    <row r="150" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A150" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B150" t="s">
+        <v>154</v>
+      </c>
+      <c r="C150">
+        <v>9</v>
+      </c>
+      <c r="D150" s="4">
+        <v>70.99744911239523</v>
+      </c>
+      <c r="E150" s="3">
+        <v>69.099692245598078</v>
+      </c>
+      <c r="F150">
+        <v>140.06037426727042</v>
+      </c>
+      <c r="G150" s="3">
+        <v>52.131155766287918</v>
+      </c>
+      <c r="H150">
+        <v>3.5024373649990039</v>
+      </c>
+    </row>
+    <row r="151" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A151" t="s">
+        <v>7</v>
+      </c>
+      <c r="B151" t="s">
+        <v>155</v>
+      </c>
+      <c r="C151">
+        <v>10</v>
+      </c>
+      <c r="D151" s="4">
+        <v>75.131612413823888</v>
+      </c>
+      <c r="E151" s="3">
+        <v>28.240250239644794</v>
+      </c>
+      <c r="F151">
+        <v>125.05129421969893</v>
+      </c>
+      <c r="G151" s="3">
+        <v>28.674644389252723</v>
+      </c>
+      <c r="H151">
+        <v>4.4710227273149483</v>
+      </c>
+    </row>
+    <row r="152" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A152" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B152" t="s">
+        <v>156</v>
+      </c>
+      <c r="C152">
+        <v>12</v>
+      </c>
+      <c r="D152" s="4">
+        <v>84.600179975160458</v>
+      </c>
+      <c r="E152" s="3">
+        <v>13.394884213712704</v>
+      </c>
+      <c r="F152">
+        <v>97.593629056388622</v>
+      </c>
+      <c r="G152" s="3">
+        <v>14.462758084343168</v>
+      </c>
+      <c r="H152">
+        <v>16.437343152889138</v>
+      </c>
+    </row>
+    <row r="153" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A153" t="s">
+        <v>7</v>
+      </c>
+      <c r="B153" t="s">
+        <v>157</v>
+      </c>
+      <c r="C153">
+        <v>14</v>
+      </c>
+      <c r="D153" s="4">
+        <v>99.00307147691187</v>
+      </c>
+      <c r="E153" s="3">
+        <v>8.8857777105090268</v>
+      </c>
+      <c r="F153">
+        <v>94.283720973775786</v>
+      </c>
+      <c r="G153" s="3">
+        <v>10.254383984345671</v>
+      </c>
+      <c r="H153">
+        <v>15.775272145736468</v>
+      </c>
+    </row>
+    <row r="154" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A154" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B154" t="s">
+        <v>158</v>
+      </c>
+      <c r="C154">
+        <v>16</v>
+      </c>
+      <c r="D154" s="4">
+        <v>111.27220127470011</v>
+      </c>
+      <c r="E154" s="3">
+        <v>2.1568033903435455</v>
+      </c>
+      <c r="F154">
+        <v>84.687069237395136</v>
+      </c>
+      <c r="G154" s="3">
+        <v>4.1142971827099943</v>
+      </c>
+      <c r="H154">
+        <v>16.707075785432821</v>
+      </c>
+    </row>
+    <row r="155" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A155" t="s">
+        <v>7</v>
+      </c>
+      <c r="B155" t="s">
+        <v>159</v>
+      </c>
+      <c r="C155">
+        <v>18</v>
+      </c>
+      <c r="D155" s="4">
+        <v>55.99443713140419</v>
+      </c>
+      <c r="E155" s="3">
+        <v>22.690580697240268</v>
+      </c>
+      <c r="F155">
+        <v>119.72213403637262</v>
+      </c>
+      <c r="G155" s="3">
+        <v>22.741526805649706</v>
+      </c>
+      <c r="H155">
+        <v>2.7218474738498677</v>
+      </c>
+    </row>
+    <row r="156" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A156" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B156" t="s">
+        <v>160</v>
+      </c>
+      <c r="C156">
+        <v>20</v>
+      </c>
+      <c r="D156" s="4">
+        <v>119.54052787755741</v>
+      </c>
+      <c r="E156" s="3">
+        <v>3.8910751223449598</v>
+      </c>
+      <c r="F156">
+        <v>77.900716816440493</v>
+      </c>
+      <c r="G156" s="3">
+        <v>4.9421740548406481</v>
+      </c>
+      <c r="H156">
+        <v>9.976020546047339</v>
+      </c>
+    </row>
+    <row r="157" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A157" t="s">
+        <v>4</v>
+      </c>
+      <c r="B157" t="s">
+        <v>161</v>
+      </c>
+      <c r="C157">
+        <v>0</v>
+      </c>
+      <c r="D157" s="4">
+        <v>58.928359474353563</v>
+      </c>
+      <c r="E157" s="3">
+        <v>1.2978658998032362</v>
+      </c>
+      <c r="F157">
+        <v>108.10623019927849</v>
+      </c>
+      <c r="G157" s="3">
+        <v>1.6118511828604476</v>
+      </c>
+      <c r="H157">
+        <v>29.261903772920498</v>
+      </c>
+    </row>
+    <row r="158" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A158" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B158" t="s">
+        <v>162</v>
+      </c>
+      <c r="C158">
+        <v>1</v>
+      </c>
+      <c r="D158" s="4">
+        <v>79.532495928247926</v>
+      </c>
+      <c r="E158" s="3">
+        <v>3.4067403259169535</v>
+      </c>
+      <c r="F158">
+        <v>109.35525211724558</v>
+      </c>
+      <c r="G158" s="3">
+        <v>3.4952710669576854</v>
+      </c>
+      <c r="H158">
+        <v>125.87522852038424</v>
+      </c>
+    </row>
+    <row r="159" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A159" t="s">
+        <v>4</v>
+      </c>
+      <c r="B159" t="s">
+        <v>163</v>
+      </c>
+      <c r="C159">
+        <v>2</v>
+      </c>
+      <c r="D159" s="4">
+        <v>89.5345039155753</v>
+      </c>
+      <c r="E159" s="3">
+        <v>4.9398365370062018</v>
+      </c>
+      <c r="F159">
+        <v>111.9573811130104</v>
+      </c>
+      <c r="G159" s="3">
+        <v>5.2683073681041686</v>
+      </c>
+      <c r="H159">
+        <v>139.72967737376422</v>
+      </c>
+    </row>
+    <row r="160" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A160" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B160" t="s">
+        <v>164</v>
+      </c>
+      <c r="C160">
+        <v>3</v>
+      </c>
+      <c r="D160" s="4">
+        <v>102.67047440559858</v>
+      </c>
+      <c r="E160" s="3">
+        <v>5.4739922304626383</v>
+      </c>
+      <c r="F160">
+        <v>120.05520654783049</v>
+      </c>
+      <c r="G160" s="3">
+        <v>5.4752765861368315</v>
+      </c>
+      <c r="H160">
+        <v>116.23024347791326</v>
+      </c>
+    </row>
+    <row r="161" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A161" t="s">
+        <v>4</v>
+      </c>
+      <c r="B161" t="s">
+        <v>165</v>
+      </c>
+      <c r="C161">
+        <v>4</v>
+      </c>
+      <c r="D161" s="4">
+        <v>103.33727493808706</v>
+      </c>
+      <c r="E161" s="3">
+        <v>3.2888098481408581</v>
+      </c>
+      <c r="F161">
+        <v>134.89775033967302</v>
+      </c>
+      <c r="G161" s="3">
+        <v>3.5228669626953737</v>
+      </c>
+      <c r="H161">
+        <v>83.167561700968164</v>
+      </c>
+    </row>
+    <row r="162" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A162" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B162" t="s">
+        <v>166</v>
+      </c>
+      <c r="C162">
+        <v>5</v>
+      </c>
+      <c r="D162" s="4">
+        <v>112.6058023396771</v>
+      </c>
+      <c r="E162" s="3">
+        <v>2.1233792442359083</v>
+      </c>
+      <c r="F162">
+        <v>128.25711714248121</v>
+      </c>
+      <c r="G162" s="3">
+        <v>2.4259301071222574</v>
+      </c>
+      <c r="H162">
+        <v>74.6668969177734</v>
+      </c>
+    </row>
+    <row r="163" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A163" t="s">
+        <v>4</v>
+      </c>
+      <c r="B163" t="s">
+        <v>167</v>
+      </c>
+      <c r="C163">
+        <v>6</v>
+      </c>
+      <c r="D163" s="4">
+        <v>111.20552122145126</v>
+      </c>
+      <c r="E163" s="3">
+        <v>7.4926845265122815</v>
+      </c>
+      <c r="F163">
+        <v>142.47514997534017</v>
+      </c>
+      <c r="G163" s="3">
+        <v>6.972353929906431</v>
+      </c>
+      <c r="H163">
+        <v>54.314343734932038</v>
+      </c>
+    </row>
+    <row r="164" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A164" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B164" t="s">
+        <v>168</v>
+      </c>
+      <c r="C164">
+        <v>7</v>
+      </c>
+      <c r="D164" s="4">
+        <v>213.55940295843462</v>
+      </c>
+      <c r="E164" s="3">
+        <v>4.4264921043337848</v>
+      </c>
+      <c r="F164">
+        <v>129.71430938010948</v>
+      </c>
+      <c r="G164" s="3">
+        <v>4.6956925315471336</v>
+      </c>
+      <c r="H164">
+        <v>49.001428245435299</v>
+      </c>
+    </row>
+    <row r="165" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A165" t="s">
+        <v>4</v>
+      </c>
+      <c r="B165" t="s">
+        <v>169</v>
+      </c>
+      <c r="C165">
+        <v>8</v>
+      </c>
+      <c r="D165" s="4">
+        <v>134.41017975205077</v>
+      </c>
+      <c r="E165" s="3">
+        <v>4.197568235709598</v>
+      </c>
+      <c r="F165">
+        <v>146.61773933659774</v>
+      </c>
+      <c r="G165" s="3">
+        <v>4.4749253656456256</v>
+      </c>
+      <c r="H165">
+        <v>30.242749709442968</v>
+      </c>
+    </row>
+    <row r="166" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A166" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B166" t="s">
+        <v>170</v>
+      </c>
+      <c r="C166">
+        <v>9</v>
+      </c>
+      <c r="D166" s="4">
+        <v>127.00869384142851</v>
+      </c>
+      <c r="E166" s="3">
+        <v>5.0993895363503317</v>
+      </c>
+      <c r="F166">
+        <v>144.51521910801978</v>
+      </c>
+      <c r="G166" s="3">
+        <v>5.3579940292516559</v>
+      </c>
+      <c r="H166">
+        <v>21.782953506936625</v>
+      </c>
+    </row>
+    <row r="167" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A167" t="s">
+        <v>4</v>
+      </c>
+      <c r="B167" t="s">
+        <v>171</v>
+      </c>
+      <c r="C167">
+        <v>10</v>
+      </c>
+      <c r="D167" s="4">
+        <v>141.87834571592185</v>
+      </c>
+      <c r="E167" s="3">
+        <v>4.9259623631501919</v>
+      </c>
+      <c r="F167">
+        <v>130.92169723414437</v>
+      </c>
+      <c r="G167" s="3">
+        <v>4.895762775645375</v>
+      </c>
+      <c r="H167">
+        <v>20.270816021464473</v>
+      </c>
+    </row>
+    <row r="168" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A168" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B168" t="s">
+        <v>172</v>
+      </c>
+      <c r="C168">
+        <v>12</v>
+      </c>
+      <c r="D168" s="4">
+        <v>159.21515956062265</v>
+      </c>
+      <c r="E168" s="3">
+        <v>3.6564754553251575</v>
+      </c>
+      <c r="F168">
+        <v>103.7554705183597</v>
+      </c>
+      <c r="G168" s="3">
+        <v>4.0402900077770321</v>
+      </c>
+      <c r="H168">
+        <v>32.000098679045735</v>
+      </c>
+    </row>
+    <row r="169" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A169" t="s">
+        <v>4</v>
+      </c>
+      <c r="B169" t="s">
+        <v>173</v>
+      </c>
+      <c r="C169">
+        <v>14</v>
+      </c>
+      <c r="D169" s="4">
+        <v>161.48228137108347</v>
+      </c>
+      <c r="E169" s="3">
+        <v>3.4969224559810277</v>
+      </c>
+      <c r="F169">
+        <v>93.617575950859973</v>
+      </c>
+      <c r="G169" s="3">
+        <v>3.7919269461378362</v>
+      </c>
+      <c r="H169">
+        <v>14.263134660264321</v>
+      </c>
+    </row>
+    <row r="170" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A170" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B170" t="s">
+        <v>174</v>
+      </c>
+      <c r="C170">
+        <v>16</v>
+      </c>
+      <c r="D170" s="4">
+        <v>162.74920238281163</v>
+      </c>
+      <c r="E170" s="3">
+        <v>4.0380152363654673</v>
+      </c>
+      <c r="F170">
+        <v>94.783329740962628</v>
+      </c>
+      <c r="G170" s="3">
+        <v>4.3507438348260274</v>
+      </c>
+      <c r="H170">
+        <v>10.707568140370348</v>
+      </c>
+    </row>
+    <row r="171" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A171" t="s">
+        <v>4</v>
+      </c>
+      <c r="B171" t="s">
+        <v>175</v>
+      </c>
+      <c r="C171">
+        <v>18</v>
+      </c>
+      <c r="D171" s="4">
+        <v>164.88296408677482</v>
+      </c>
+      <c r="E171" s="3">
+        <v>2.6575349376923443</v>
+      </c>
+      <c r="F171">
+        <v>92.139566681265563</v>
+      </c>
+      <c r="G171" s="3">
+        <v>3.0054439176137144</v>
+      </c>
+      <c r="H171">
+        <v>15.28484917747523</v>
+      </c>
+    </row>
+    <row r="172" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A172" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B172" t="s">
+        <v>176</v>
+      </c>
+      <c r="C172">
+        <v>20</v>
+      </c>
+      <c r="D172" s="4">
+        <v>164.68292392702827</v>
+      </c>
+      <c r="E172" s="3">
+        <v>2.7269058069723995</v>
+      </c>
+      <c r="F172">
+        <v>83.979290150547101</v>
+      </c>
+      <c r="G172" s="3">
+        <v>3.0399387872858252</v>
+      </c>
+      <c r="H172">
+        <v>8.4189276218179057</v>
       </c>
     </row>
   </sheetData>

--- a/index/data/pw_P_photometric.xlsx
+++ b/index/data/pw_P_photometric.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\harmv\Documents\studie\scriptie\Master\Master_Thesis\index\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{562DF503-067F-488A-A777-BC981B8972E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{589765F5-3EDC-4D31-BBD2-476D2175E4FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -923,7 +923,7 @@
   <dimension ref="A1:H172"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J114" sqref="J114"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
